--- a/analized-output/Ethernet Result.xlsx
+++ b/analized-output/Ethernet Result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
   <si>
     <t>&lt;eth0&gt;</t>
   </si>
@@ -124,15 +124,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>4. CPU 부하가 걸려있을 때</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Eth</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CPU</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. CPU 로드가 있을 때</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 많은 인터럽트가 (키보드 &amp; 이더넷)이 같은 코어에서 처리 될 때</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 키보드 입력과 이더넷이 다른 코어에서 처리 될 때 (빅 리틀 동시사용, 하나의 코어 클러스터만 사용 할 때는 smp 환경과 다를 바 없음)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -726,11 +734,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="4" xfId="11" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1405,11 +1419,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470501152"/>
-        <c:axId val="470509384"/>
+        <c:axId val="460047880"/>
+        <c:axId val="460058464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470501152"/>
+        <c:axId val="460047880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1468,13 +1482,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470509384"/>
+        <c:crossAx val="460058464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470509384"/>
+        <c:axId val="460058464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1532,7 +1546,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470501152"/>
+        <c:crossAx val="460047880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2516,11 +2530,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470514480"/>
-        <c:axId val="470514088"/>
+        <c:axId val="598457904"/>
+        <c:axId val="598446928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470514480"/>
+        <c:axId val="598457904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2579,13 +2593,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470514088"/>
+        <c:crossAx val="598446928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470514088"/>
+        <c:axId val="598446928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2643,7 +2657,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470514480"/>
+        <c:crossAx val="598457904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3657,11 +3671,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472235144"/>
-        <c:axId val="472230048"/>
+        <c:axId val="598448104"/>
+        <c:axId val="598451240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472235144"/>
+        <c:axId val="598448104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3719,13 +3733,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472230048"/>
+        <c:crossAx val="598451240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472230048"/>
+        <c:axId val="598451240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3783,7 +3797,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472235144"/>
+        <c:crossAx val="598448104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4797,11 +4811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="702789192"/>
-        <c:axId val="702783312"/>
+        <c:axId val="598452024"/>
+        <c:axId val="598452416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="702789192"/>
+        <c:axId val="598452024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4859,13 +4873,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702783312"/>
+        <c:crossAx val="598452416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="702783312"/>
+        <c:axId val="598452416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4923,7 +4937,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702789192"/>
+        <c:crossAx val="598452024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5937,11 +5951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="704936384"/>
-        <c:axId val="704935600"/>
+        <c:axId val="598454768"/>
+        <c:axId val="598453200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="704936384"/>
+        <c:axId val="598454768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5999,13 +6013,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704935600"/>
+        <c:crossAx val="598453200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="704935600"/>
+        <c:axId val="598453200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6063,7 +6077,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704936384"/>
+        <c:crossAx val="598454768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7077,11 +7091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699902592"/>
-        <c:axId val="699906120"/>
+        <c:axId val="598459864"/>
+        <c:axId val="598462216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699902592"/>
+        <c:axId val="598459864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7139,13 +7153,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699906120"/>
+        <c:crossAx val="598462216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699906120"/>
+        <c:axId val="598462216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7203,7 +7217,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699902592"/>
+        <c:crossAx val="598459864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8217,11 +8231,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="668902208"/>
-        <c:axId val="668900640"/>
+        <c:axId val="598463392"/>
+        <c:axId val="598459080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="668902208"/>
+        <c:axId val="598463392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8279,13 +8293,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668900640"/>
+        <c:crossAx val="598459080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="668900640"/>
+        <c:axId val="598459080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8343,7 +8357,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668902208"/>
+        <c:crossAx val="598463392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9357,11 +9371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="668901032"/>
-        <c:axId val="713379496"/>
+        <c:axId val="598458688"/>
+        <c:axId val="598464960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="668901032"/>
+        <c:axId val="598458688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9419,13 +9433,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="713379496"/>
+        <c:crossAx val="598464960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="713379496"/>
+        <c:axId val="598464960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9483,7 +9497,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668901032"/>
+        <c:crossAx val="598458688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10178,11 +10192,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470508208"/>
-        <c:axId val="470509776"/>
+        <c:axId val="460058856"/>
+        <c:axId val="460061208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470508208"/>
+        <c:axId val="460058856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -10240,13 +10254,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470509776"/>
+        <c:crossAx val="460061208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470509776"/>
+        <c:axId val="460061208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10304,7 +10318,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470508208"/>
+        <c:crossAx val="460058856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11008,11 +11022,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470503896"/>
-        <c:axId val="470501544"/>
+        <c:axId val="598458296"/>
+        <c:axId val="598450456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470503896"/>
+        <c:axId val="598458296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -11071,13 +11085,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470501544"/>
+        <c:crossAx val="598450456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470501544"/>
+        <c:axId val="598450456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11135,7 +11149,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470503896"/>
+        <c:crossAx val="598458296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11839,11 +11853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470501936"/>
-        <c:axId val="470512128"/>
+        <c:axId val="598456336"/>
+        <c:axId val="598448496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470501936"/>
+        <c:axId val="598456336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11901,13 +11915,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470512128"/>
+        <c:crossAx val="598448496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470512128"/>
+        <c:axId val="598448496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11965,7 +11979,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470501936"/>
+        <c:crossAx val="598456336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12949,11 +12963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470503112"/>
-        <c:axId val="470503504"/>
+        <c:axId val="598447320"/>
+        <c:axId val="598455160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470503112"/>
+        <c:axId val="598447320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -13012,13 +13026,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470503504"/>
+        <c:crossAx val="598455160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470503504"/>
+        <c:axId val="598455160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13076,7 +13090,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470503112"/>
+        <c:crossAx val="598447320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14060,11 +14074,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470505072"/>
-        <c:axId val="470505856"/>
+        <c:axId val="598453592"/>
+        <c:axId val="598453984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470505072"/>
+        <c:axId val="598453592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="115"/>
@@ -14123,13 +14137,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470505856"/>
+        <c:crossAx val="598453984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470505856"/>
+        <c:axId val="598453984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -14187,7 +14201,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470505072"/>
+        <c:crossAx val="598453592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15171,11 +15185,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470516048"/>
-        <c:axId val="470513304"/>
+        <c:axId val="598446144"/>
+        <c:axId val="598449672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470516048"/>
+        <c:axId val="598446144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="115"/>
@@ -15234,13 +15248,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470513304"/>
+        <c:crossAx val="598449672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470513304"/>
+        <c:axId val="598449672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15298,7 +15312,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470516048"/>
+        <c:crossAx val="598446144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16282,11 +16296,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470512520"/>
-        <c:axId val="470502328"/>
+        <c:axId val="598456728"/>
+        <c:axId val="598446536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470512520"/>
+        <c:axId val="598456728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -16345,13 +16359,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470502328"/>
+        <c:crossAx val="598446536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470502328"/>
+        <c:axId val="598446536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -16409,7 +16423,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470512520"/>
+        <c:crossAx val="598456728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17393,11 +17407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470502720"/>
-        <c:axId val="470504288"/>
+        <c:axId val="598450848"/>
+        <c:axId val="598447712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470502720"/>
+        <c:axId val="598450848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -17456,13 +17470,13 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470504288"/>
+        <c:crossAx val="598447712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470504288"/>
+        <c:axId val="598447712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -17520,7 +17534,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470502720"/>
+        <c:crossAx val="598450848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -26517,7 +26531,7 @@
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26553,7 +26567,7 @@
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26589,7 +26603,7 @@
         <xdr:cNvPr id="4" name="차트 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26627,7 +26641,7 @@
         <xdr:cNvPr id="5" name="차트 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26665,7 +26679,7 @@
         <xdr:cNvPr id="8" name="차트 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26703,7 +26717,7 @@
         <xdr:cNvPr id="9" name="차트 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26741,7 +26755,7 @@
         <xdr:cNvPr id="10" name="차트 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26779,7 +26793,7 @@
         <xdr:cNvPr id="12" name="차트 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26817,7 +26831,7 @@
         <xdr:cNvPr id="15" name="차트 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26855,7 +26869,7 @@
         <xdr:cNvPr id="16" name="차트 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26893,7 +26907,7 @@
         <xdr:cNvPr id="13" name="차트 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26931,7 +26945,7 @@
         <xdr:cNvPr id="14" name="차트 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26969,7 +26983,7 @@
         <xdr:cNvPr id="17" name="차트 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27007,7 +27021,7 @@
         <xdr:cNvPr id="19" name="차트 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27045,7 +27059,7 @@
         <xdr:cNvPr id="21" name="차트 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27083,7 +27097,7 @@
         <xdr:cNvPr id="22" name="차트 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27369,10 +27383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:BX274"/>
+  <dimension ref="A10:BX300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W231" sqref="W231"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AM169" sqref="AM169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41029,17 +41043,17 @@
       <c r="D199" t="s">
         <v>22</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J199" t="s">
-        <v>24</v>
-      </c>
-      <c r="P199" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD199" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>28</v>
+      </c>
+      <c r="T199" t="s">
+        <v>30</v>
       </c>
       <c r="AV199" t="s">
         <v>21</v>
@@ -44865,7 +44879,7 @@
         <v>21</v>
       </c>
       <c r="B225" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D225" t="s">
         <v>22</v>
@@ -44873,17 +44887,20 @@
       <c r="G225" t="s">
         <v>23</v>
       </c>
-      <c r="J225" t="s">
-        <v>24</v>
-      </c>
-      <c r="P225" t="s">
-        <v>25</v>
+      <c r="J225" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>28</v>
+      </c>
+      <c r="T225" t="s">
+        <v>30</v>
       </c>
       <c r="AV225" t="s">
         <v>21</v>
       </c>
       <c r="AW225" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY225" t="s">
         <v>22</v>
@@ -44929,9 +44946,13 @@
       <c r="BI226">
         <v>800</v>
       </c>
-      <c r="BO226">
+      <c r="BN226" s="2"/>
+      <c r="BO226" s="2">
         <v>950</v>
       </c>
+      <c r="BP226" s="2"/>
+      <c r="BQ226" s="2"/>
+      <c r="BR226" s="2"/>
       <c r="BU226">
         <v>1100</v>
       </c>
@@ -44985,10 +45006,13 @@
       <c r="BL227">
         <v>0</v>
       </c>
-      <c r="BP227">
+      <c r="BN227" s="2"/>
+      <c r="BO227" s="2"/>
+      <c r="BP227" s="2">
         <v>0</v>
       </c>
-      <c r="BR227">
+      <c r="BQ227" s="2"/>
+      <c r="BR227" s="2">
         <v>0</v>
       </c>
       <c r="BV227">
@@ -45135,20 +45159,20 @@
         <f>ROUND(BH228,0)</f>
         <v>2</v>
       </c>
-      <c r="BN228">
+      <c r="BN228" s="2">
         <v>1.68</v>
       </c>
-      <c r="BO228">
+      <c r="BO228" s="2">
         <v>8</v>
       </c>
-      <c r="BP228">
+      <c r="BP228" s="2">
         <f>SUM(BO$228:BO228)/BP$248</f>
         <v>1.3029315960912053E-2</v>
       </c>
-      <c r="BQ228">
+      <c r="BQ228" s="2">
         <v>0</v>
       </c>
-      <c r="BR228" s="1">
+      <c r="BR228" s="3">
         <f>ROUND(BN228,0)</f>
         <v>2</v>
       </c>
@@ -45315,21 +45339,21 @@
         <f t="shared" ref="BL229:BL247" si="42">ROUND(BH229,0)</f>
         <v>3</v>
       </c>
-      <c r="BN229">
+      <c r="BN229" s="2">
         <v>2.6709999999999998</v>
       </c>
-      <c r="BO229">
+      <c r="BO229" s="2">
         <v>5</v>
       </c>
-      <c r="BP229">
+      <c r="BP229" s="2">
         <f>SUM(BO$228:BO229)/BP$248</f>
         <v>2.1172638436482084E-2</v>
       </c>
-      <c r="BQ229">
+      <c r="BQ229" s="2">
         <f>SUM(BO$229:BO229)/BQ$248</f>
         <v>8.2508250825082501E-3</v>
       </c>
-      <c r="BR229" s="1">
+      <c r="BR229" s="3">
         <f t="shared" ref="BR229:BR247" si="43">ROUND(BN229,0)</f>
         <v>3</v>
       </c>
@@ -45497,21 +45521,21 @@
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="BN230">
+      <c r="BN230" s="2">
         <v>3.6619999999999999</v>
       </c>
-      <c r="BO230">
+      <c r="BO230" s="2">
         <v>7</v>
       </c>
-      <c r="BP230">
+      <c r="BP230" s="2">
         <f>SUM(BO$228:BO230)/BP$248</f>
         <v>3.2573289902280131E-2</v>
       </c>
-      <c r="BQ230">
+      <c r="BQ230" s="2">
         <f>SUM(BO$229:BO230)/BQ$248</f>
         <v>1.9801980198019802E-2</v>
       </c>
-      <c r="BR230" s="1">
+      <c r="BR230" s="3">
         <f t="shared" si="43"/>
         <v>4</v>
       </c>
@@ -45679,21 +45703,21 @@
         <f t="shared" si="42"/>
         <v>5</v>
       </c>
-      <c r="BN231">
+      <c r="BN231" s="2">
         <v>4.6529999999999996</v>
       </c>
-      <c r="BO231">
+      <c r="BO231" s="2">
         <v>31</v>
       </c>
-      <c r="BP231">
+      <c r="BP231" s="2">
         <f>SUM(BO$228:BO231)/BP$248</f>
         <v>8.3061889250814328E-2</v>
       </c>
-      <c r="BQ231">
+      <c r="BQ231" s="2">
         <f>SUM(BO$229:BO231)/BQ$248</f>
         <v>7.0957095709570955E-2</v>
       </c>
-      <c r="BR231" s="1">
+      <c r="BR231" s="3">
         <f t="shared" si="43"/>
         <v>5</v>
       </c>
@@ -45861,21 +45885,21 @@
         <f t="shared" si="42"/>
         <v>7</v>
       </c>
-      <c r="BN232">
+      <c r="BN232" s="2">
         <v>5.6440000000000001</v>
       </c>
-      <c r="BO232">
+      <c r="BO232" s="2">
         <v>18</v>
       </c>
-      <c r="BP232">
+      <c r="BP232" s="2">
         <f>SUM(BO$228:BO232)/BP$248</f>
         <v>0.11237785016286644</v>
       </c>
-      <c r="BQ232">
+      <c r="BQ232" s="2">
         <f>SUM(BO$229:BO232)/BQ$248</f>
         <v>0.10066006600660066</v>
       </c>
-      <c r="BR232" s="1">
+      <c r="BR232" s="3">
         <f t="shared" si="43"/>
         <v>6</v>
       </c>
@@ -46043,21 +46067,21 @@
         <f t="shared" si="42"/>
         <v>8</v>
       </c>
-      <c r="BN233">
+      <c r="BN233" s="2">
         <v>6.6349999999999998</v>
       </c>
-      <c r="BO233">
+      <c r="BO233" s="2">
         <v>6</v>
       </c>
-      <c r="BP233">
+      <c r="BP233" s="2">
         <f>SUM(BO$228:BO233)/BP$248</f>
         <v>0.12214983713355049</v>
       </c>
-      <c r="BQ233">
+      <c r="BQ233" s="2">
         <f>SUM(BO$229:BO233)/BQ$248</f>
         <v>0.11056105610561057</v>
       </c>
-      <c r="BR233" s="1">
+      <c r="BR233" s="3">
         <f t="shared" si="43"/>
         <v>7</v>
       </c>
@@ -46225,21 +46249,21 @@
         <f t="shared" si="42"/>
         <v>9</v>
       </c>
-      <c r="BN234">
+      <c r="BN234" s="2">
         <v>7.6260000000000003</v>
       </c>
-      <c r="BO234">
+      <c r="BO234" s="2">
         <v>4</v>
       </c>
-      <c r="BP234">
+      <c r="BP234" s="2">
         <f>SUM(BO$228:BO234)/BP$248</f>
         <v>0.12866449511400652</v>
       </c>
-      <c r="BQ234">
+      <c r="BQ234" s="2">
         <f>SUM(BO$229:BO234)/BQ$248</f>
         <v>0.11716171617161716</v>
       </c>
-      <c r="BR234" s="1">
+      <c r="BR234" s="3">
         <f t="shared" si="43"/>
         <v>8</v>
       </c>
@@ -46407,21 +46431,21 @@
         <f t="shared" si="42"/>
         <v>10</v>
       </c>
-      <c r="BN235">
+      <c r="BN235" s="2">
         <v>8.6170000000000009</v>
       </c>
-      <c r="BO235">
+      <c r="BO235" s="2">
         <v>5</v>
       </c>
-      <c r="BP235">
+      <c r="BP235" s="2">
         <f>SUM(BO$228:BO235)/BP$248</f>
         <v>0.13680781758957655</v>
       </c>
-      <c r="BQ235">
+      <c r="BQ235" s="2">
         <f>SUM(BO$229:BO235)/BQ$248</f>
         <v>0.1254125412541254</v>
       </c>
-      <c r="BR235" s="1">
+      <c r="BR235" s="3">
         <f t="shared" si="43"/>
         <v>9</v>
       </c>
@@ -46589,21 +46613,21 @@
         <f t="shared" si="42"/>
         <v>11</v>
       </c>
-      <c r="BN236">
+      <c r="BN236" s="2">
         <v>9.6080000000000005</v>
       </c>
-      <c r="BO236">
+      <c r="BO236" s="2">
         <v>0</v>
       </c>
-      <c r="BP236">
+      <c r="BP236" s="2">
         <f>SUM(BO$228:BO236)/BP$248</f>
         <v>0.13680781758957655</v>
       </c>
-      <c r="BQ236">
+      <c r="BQ236" s="2">
         <f>SUM(BO$229:BO236)/BQ$248</f>
         <v>0.1254125412541254</v>
       </c>
-      <c r="BR236" s="1">
+      <c r="BR236" s="3">
         <f t="shared" si="43"/>
         <v>10</v>
       </c>
@@ -46771,21 +46795,21 @@
         <f t="shared" si="42"/>
         <v>12</v>
       </c>
-      <c r="BN237">
+      <c r="BN237" s="2">
         <v>10.599</v>
       </c>
-      <c r="BO237">
+      <c r="BO237" s="2">
         <v>8</v>
       </c>
-      <c r="BP237">
+      <c r="BP237" s="2">
         <f>SUM(BO$228:BO237)/BP$248</f>
         <v>0.14983713355048861</v>
       </c>
-      <c r="BQ237">
+      <c r="BQ237" s="2">
         <f>SUM(BO$229:BO237)/BQ$248</f>
         <v>0.13861386138613863</v>
       </c>
-      <c r="BR237" s="1">
+      <c r="BR237" s="3">
         <f t="shared" si="43"/>
         <v>11</v>
       </c>
@@ -46953,21 +46977,21 @@
         <f t="shared" si="42"/>
         <v>13</v>
       </c>
-      <c r="BN238">
+      <c r="BN238" s="2">
         <v>11.59</v>
       </c>
-      <c r="BO238">
+      <c r="BO238" s="2">
         <v>15</v>
       </c>
-      <c r="BP238">
+      <c r="BP238" s="2">
         <f>SUM(BO$228:BO238)/BP$248</f>
         <v>0.17426710097719869</v>
       </c>
-      <c r="BQ238">
+      <c r="BQ238" s="2">
         <f>SUM(BO$229:BO238)/BQ$248</f>
         <v>0.16336633663366337</v>
       </c>
-      <c r="BR238" s="1">
+      <c r="BR238" s="3">
         <f t="shared" si="43"/>
         <v>12</v>
       </c>
@@ -47135,21 +47159,21 @@
         <f t="shared" si="42"/>
         <v>15</v>
       </c>
-      <c r="BN239">
+      <c r="BN239" s="2">
         <v>12.581</v>
       </c>
-      <c r="BO239">
+      <c r="BO239" s="2">
         <v>15</v>
       </c>
-      <c r="BP239">
+      <c r="BP239" s="2">
         <f>SUM(BO$228:BO239)/BP$248</f>
         <v>0.1986970684039088</v>
       </c>
-      <c r="BQ239">
+      <c r="BQ239" s="2">
         <f>SUM(BO$229:BO239)/BQ$248</f>
         <v>0.18811881188118812</v>
       </c>
-      <c r="BR239" s="1">
+      <c r="BR239" s="3">
         <f t="shared" si="43"/>
         <v>13</v>
       </c>
@@ -47317,21 +47341,21 @@
         <f t="shared" si="42"/>
         <v>16</v>
       </c>
-      <c r="BN240">
+      <c r="BN240" s="2">
         <v>13.571999999999999</v>
       </c>
-      <c r="BO240">
+      <c r="BO240" s="2">
         <v>17</v>
       </c>
-      <c r="BP240">
+      <c r="BP240" s="2">
         <f>SUM(BO$228:BO240)/BP$248</f>
         <v>0.2263843648208469</v>
       </c>
-      <c r="BQ240">
+      <c r="BQ240" s="2">
         <f>SUM(BO$229:BO240)/BQ$248</f>
         <v>0.21617161716171618</v>
       </c>
-      <c r="BR240" s="1">
+      <c r="BR240" s="3">
         <f t="shared" si="43"/>
         <v>14</v>
       </c>
@@ -47499,21 +47523,21 @@
         <f t="shared" si="42"/>
         <v>17</v>
       </c>
-      <c r="BN241">
+      <c r="BN241" s="2">
         <v>14.563000000000001</v>
       </c>
-      <c r="BO241">
+      <c r="BO241" s="2">
         <v>13</v>
       </c>
-      <c r="BP241">
+      <c r="BP241" s="2">
         <f>SUM(BO$228:BO241)/BP$248</f>
         <v>0.24755700325732899</v>
       </c>
-      <c r="BQ241">
+      <c r="BQ241" s="2">
         <f>SUM(BO$229:BO241)/BQ$248</f>
         <v>0.23762376237623761</v>
       </c>
-      <c r="BR241" s="1">
+      <c r="BR241" s="3">
         <f t="shared" si="43"/>
         <v>15</v>
       </c>
@@ -47681,21 +47705,21 @@
         <f t="shared" si="42"/>
         <v>18</v>
       </c>
-      <c r="BN242">
+      <c r="BN242" s="2">
         <v>15.554</v>
       </c>
-      <c r="BO242">
+      <c r="BO242" s="2">
         <v>19</v>
       </c>
-      <c r="BP242">
+      <c r="BP242" s="2">
         <f>SUM(BO$228:BO242)/BP$248</f>
         <v>0.27850162866449513</v>
       </c>
-      <c r="BQ242">
+      <c r="BQ242" s="2">
         <f>SUM(BO$229:BO242)/BQ$248</f>
         <v>0.26897689768976896</v>
       </c>
-      <c r="BR242" s="1">
+      <c r="BR242" s="3">
         <f t="shared" si="43"/>
         <v>16</v>
       </c>
@@ -47863,21 +47887,21 @@
         <f t="shared" si="42"/>
         <v>19</v>
       </c>
-      <c r="BN243">
+      <c r="BN243" s="2">
         <v>16.545000000000002</v>
       </c>
-      <c r="BO243">
+      <c r="BO243" s="2">
         <v>57</v>
       </c>
-      <c r="BP243">
+      <c r="BP243" s="2">
         <f>SUM(BO$228:BO243)/BP$248</f>
         <v>0.37133550488599348</v>
       </c>
-      <c r="BQ243">
+      <c r="BQ243" s="2">
         <f>SUM(BO$229:BO243)/BQ$248</f>
         <v>0.36303630363036304</v>
       </c>
-      <c r="BR243" s="1">
+      <c r="BR243" s="3">
         <f t="shared" si="43"/>
         <v>17</v>
       </c>
@@ -48045,21 +48069,21 @@
         <f t="shared" si="42"/>
         <v>20</v>
       </c>
-      <c r="BN244">
+      <c r="BN244" s="2">
         <v>17.536000000000001</v>
       </c>
-      <c r="BO244">
+      <c r="BO244" s="2">
         <v>229</v>
       </c>
-      <c r="BP244">
+      <c r="BP244" s="2">
         <f>SUM(BO$228:BO244)/BP$248</f>
         <v>0.74429967426710097</v>
       </c>
-      <c r="BQ244">
+      <c r="BQ244" s="2">
         <f>SUM(BO$229:BO244)/BQ$248</f>
         <v>0.74092409240924095</v>
       </c>
-      <c r="BR244" s="1">
+      <c r="BR244" s="3">
         <f t="shared" si="43"/>
         <v>18</v>
       </c>
@@ -48227,21 +48251,21 @@
         <f t="shared" si="42"/>
         <v>21</v>
       </c>
-      <c r="BN245">
+      <c r="BN245" s="2">
         <v>18.527000000000001</v>
       </c>
-      <c r="BO245">
+      <c r="BO245" s="2">
         <v>143</v>
       </c>
-      <c r="BP245">
+      <c r="BP245" s="2">
         <f>SUM(BO$228:BO245)/BP$248</f>
         <v>0.9771986970684039</v>
       </c>
-      <c r="BQ245">
+      <c r="BQ245" s="2">
         <f>SUM(BO$229:BO245)/BQ$248</f>
         <v>0.97689768976897695</v>
       </c>
-      <c r="BR245" s="1">
+      <c r="BR245" s="3">
         <f t="shared" si="43"/>
         <v>19</v>
       </c>
@@ -48409,21 +48433,21 @@
         <f t="shared" si="42"/>
         <v>23</v>
       </c>
-      <c r="BN246">
+      <c r="BN246" s="2">
         <v>19.518000000000001</v>
       </c>
-      <c r="BO246">
+      <c r="BO246" s="2">
         <v>12</v>
       </c>
-      <c r="BP246">
+      <c r="BP246" s="2">
         <f>SUM(BO$228:BO246)/BP$248</f>
         <v>0.99674267100977199</v>
       </c>
-      <c r="BQ246">
+      <c r="BQ246" s="2">
         <f>SUM(BO$229:BO246)/BQ$248</f>
         <v>0.99669966996699666</v>
       </c>
-      <c r="BR246" s="1">
+      <c r="BR246" s="3">
         <f t="shared" si="43"/>
         <v>20</v>
       </c>
@@ -48591,21 +48615,21 @@
         <f t="shared" si="42"/>
         <v>24</v>
       </c>
-      <c r="BN247">
+      <c r="BN247" s="2">
         <v>20.509</v>
       </c>
-      <c r="BO247">
+      <c r="BO247" s="2">
         <v>2</v>
       </c>
-      <c r="BP247">
+      <c r="BP247" s="2">
         <f>SUM(BO$228:BO247)/BP$248</f>
         <v>1</v>
       </c>
-      <c r="BQ247">
+      <c r="BQ247" s="2">
         <f>SUM(BO$229:BO247)/BQ$248</f>
         <v>1</v>
       </c>
-      <c r="BR247" s="1">
+      <c r="BR247" s="3">
         <f t="shared" si="43"/>
         <v>21</v>
       </c>
@@ -48693,14 +48717,17 @@
         <f>SUM(BI229:BI247)</f>
         <v>811</v>
       </c>
-      <c r="BP248">
+      <c r="BN248" s="2"/>
+      <c r="BO248" s="2"/>
+      <c r="BP248" s="2">
         <f>SUM(BO228:BO247)</f>
         <v>614</v>
       </c>
-      <c r="BQ248">
+      <c r="BQ248" s="2">
         <f>SUM(BO229:BO247)</f>
         <v>606</v>
       </c>
+      <c r="BR248" s="2"/>
       <c r="BV248">
         <f>SUM(BU228:BU247)</f>
         <v>754</v>
@@ -48715,7 +48742,7 @@
         <v>21</v>
       </c>
       <c r="B251" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D251" t="s">
         <v>22</v>
@@ -48724,10 +48751,13 @@
         <v>23</v>
       </c>
       <c r="J251" t="s">
-        <v>24</v>
-      </c>
-      <c r="P251" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="Q251" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T251" t="s">
+        <v>30</v>
       </c>
       <c r="AV251" t="s">
         <v>21</v>
@@ -52557,6 +52587,3793 @@
       </c>
       <c r="BW274">
         <f>SUM(BU255:BU273)</f>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="277" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
+        <v>27</v>
+      </c>
+      <c r="D277" t="s">
+        <v>22</v>
+      </c>
+      <c r="G277" t="s">
+        <v>23</v>
+      </c>
+      <c r="J277" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>28</v>
+      </c>
+      <c r="T277" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV277" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW277" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY277" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB277" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE277" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK277" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="278" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>450</v>
+      </c>
+      <c r="H278">
+        <v>575</v>
+      </c>
+      <c r="N278">
+        <v>700</v>
+      </c>
+      <c r="T278">
+        <v>775</v>
+      </c>
+      <c r="Z278">
+        <v>850</v>
+      </c>
+      <c r="AV278" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW278">
+        <v>450</v>
+      </c>
+      <c r="BC278">
+        <v>625</v>
+      </c>
+      <c r="BI278">
+        <v>800</v>
+      </c>
+      <c r="BO278">
+        <v>950</v>
+      </c>
+      <c r="BU278">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="279" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="O279">
+        <v>0</v>
+      </c>
+      <c r="Q279">
+        <v>0</v>
+      </c>
+      <c r="U279">
+        <v>0</v>
+      </c>
+      <c r="W279">
+        <v>0</v>
+      </c>
+      <c r="AA279">
+        <v>0</v>
+      </c>
+      <c r="AC279">
+        <v>0</v>
+      </c>
+      <c r="AX279">
+        <v>0</v>
+      </c>
+      <c r="AZ279">
+        <v>0</v>
+      </c>
+      <c r="BD279">
+        <v>0</v>
+      </c>
+      <c r="BF279">
+        <v>0</v>
+      </c>
+      <c r="BJ279">
+        <v>0</v>
+      </c>
+      <c r="BL279">
+        <v>0</v>
+      </c>
+      <c r="BP279">
+        <v>0</v>
+      </c>
+      <c r="BR279">
+        <v>0</v>
+      </c>
+      <c r="BV279">
+        <v>0</v>
+      </c>
+      <c r="BX279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>12</v>
+      </c>
+      <c r="C280">
+        <f>SUM(B$280:B280)/C$300</f>
+        <v>7.121661721068249E-3</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280" s="1">
+        <f>ROUND(A280,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>3.36</v>
+      </c>
+      <c r="H280">
+        <v>11</v>
+      </c>
+      <c r="I280">
+        <f>SUM(H$280:H280)/I$300</f>
+        <v>7.8571428571428577E-3</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280" s="1">
+        <f>ROUND(G280,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M280">
+        <v>2.8</v>
+      </c>
+      <c r="N280">
+        <v>11</v>
+      </c>
+      <c r="O280">
+        <f>SUM(N$280:N280)/O$300</f>
+        <v>7.6441973592772756E-3</v>
+      </c>
+      <c r="P280">
+        <v>0</v>
+      </c>
+      <c r="Q280" s="1">
+        <f>ROUND(M280,0)</f>
+        <v>3</v>
+      </c>
+      <c r="S280">
+        <v>2.6</v>
+      </c>
+      <c r="T280">
+        <v>11</v>
+      </c>
+      <c r="U280">
+        <f>SUM(T$280:T280)/U$300</f>
+        <v>8.6004691164972627E-3</v>
+      </c>
+      <c r="V280">
+        <v>0</v>
+      </c>
+      <c r="W280" s="1">
+        <f>ROUND(S280,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y280">
+        <v>2.54</v>
+      </c>
+      <c r="Z280">
+        <v>11</v>
+      </c>
+      <c r="AA280">
+        <f>SUM(Z$280:Z280)/AA$300</f>
+        <v>1.0466222645099905E-2</v>
+      </c>
+      <c r="AB280">
+        <v>0</v>
+      </c>
+      <c r="AC280" s="1">
+        <f>ROUND(Y280,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AV280">
+        <v>3.84</v>
+      </c>
+      <c r="AW280">
+        <v>12</v>
+      </c>
+      <c r="AX280">
+        <f>SUM(AW$280:AW280)/AX$300</f>
+        <v>7.121661721068249E-3</v>
+      </c>
+      <c r="AY280">
+        <v>0</v>
+      </c>
+      <c r="AZ280" s="1">
+        <f>ROUND(AV280,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BB280">
+        <v>3.36</v>
+      </c>
+      <c r="BC280">
+        <v>11</v>
+      </c>
+      <c r="BD280">
+        <f>SUM(BC$280:BC280)/BD$300</f>
+        <v>7.8571428571428577E-3</v>
+      </c>
+      <c r="BE280">
+        <v>0</v>
+      </c>
+      <c r="BF280" s="1">
+        <f>ROUND(BB280,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BH280">
+        <v>2.8</v>
+      </c>
+      <c r="BI280">
+        <v>11</v>
+      </c>
+      <c r="BJ280">
+        <f>SUM(BI$280:BI280)/BJ$300</f>
+        <v>7.6441973592772756E-3</v>
+      </c>
+      <c r="BK280">
+        <v>0</v>
+      </c>
+      <c r="BL280" s="1">
+        <f>ROUND(BH280,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BN280">
+        <v>2.6</v>
+      </c>
+      <c r="BO280">
+        <v>11</v>
+      </c>
+      <c r="BP280">
+        <f>SUM(BO$280:BO280)/BP$300</f>
+        <v>8.6004691164972627E-3</v>
+      </c>
+      <c r="BQ280">
+        <v>0</v>
+      </c>
+      <c r="BR280" s="1">
+        <f>ROUND(BN280,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BT280">
+        <v>2.54</v>
+      </c>
+      <c r="BU280">
+        <v>11</v>
+      </c>
+      <c r="BV280">
+        <f>SUM(BU$280:BU280)/BV$300</f>
+        <v>1.0466222645099905E-2</v>
+      </c>
+      <c r="BW280">
+        <v>0</v>
+      </c>
+      <c r="BX280" s="1">
+        <f>ROUND(BT280,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>11</v>
+      </c>
+      <c r="C281">
+        <f>SUM(B$280:B281)/C$300</f>
+        <v>1.3649851632047478E-2</v>
+      </c>
+      <c r="D281">
+        <f>SUM(B$281:B281)/D$300</f>
+        <v>6.5750149432157803E-3</v>
+      </c>
+      <c r="E281" s="1">
+        <f t="shared" ref="E281:E299" si="55">ROUND(A281,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>5.3170000000000002</v>
+      </c>
+      <c r="H281">
+        <v>5</v>
+      </c>
+      <c r="I281">
+        <f>SUM(H$280:H281)/I$300</f>
+        <v>1.1428571428571429E-2</v>
+      </c>
+      <c r="J281">
+        <f>SUM(H$281:H281)/J$300</f>
+        <v>3.599712023038157E-3</v>
+      </c>
+      <c r="K281" s="1">
+        <f t="shared" ref="K281:K299" si="56">ROUND(G281,0)</f>
+        <v>5</v>
+      </c>
+      <c r="M281">
+        <v>4.569</v>
+      </c>
+      <c r="N281">
+        <v>5</v>
+      </c>
+      <c r="O281">
+        <f>SUM(N$280:N281)/O$300</f>
+        <v>1.1118832522585128E-2</v>
+      </c>
+      <c r="P281">
+        <f>SUM(N$281:N281)/P$300</f>
+        <v>3.5014005602240898E-3</v>
+      </c>
+      <c r="Q281" s="1">
+        <f t="shared" ref="Q281:Q299" si="57">ROUND(M281,0)</f>
+        <v>5</v>
+      </c>
+      <c r="S281">
+        <v>5.0679999999999996</v>
+      </c>
+      <c r="T281">
+        <v>41</v>
+      </c>
+      <c r="U281">
+        <f>SUM(T$280:T281)/U$300</f>
+        <v>4.0656763096168884E-2</v>
+      </c>
+      <c r="V281">
+        <f>SUM(T$281:T281)/V$300</f>
+        <v>3.2334384858044164E-2</v>
+      </c>
+      <c r="W281" s="1">
+        <f t="shared" ref="W281:W299" si="58">ROUND(S281,0)</f>
+        <v>5</v>
+      </c>
+      <c r="Y281">
+        <v>4.694</v>
+      </c>
+      <c r="Z281">
+        <v>11</v>
+      </c>
+      <c r="AA281">
+        <f>SUM(Z$280:Z281)/AA$300</f>
+        <v>2.093244529019981E-2</v>
+      </c>
+      <c r="AB281">
+        <f>SUM(Z$281:Z281)/AB$300</f>
+        <v>1.0576923076923078E-2</v>
+      </c>
+      <c r="AC281" s="1">
+        <f t="shared" ref="AC281:AC299" si="59">ROUND(Y281,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AV281">
+        <v>6.2679999999999998</v>
+      </c>
+      <c r="AW281">
+        <v>11</v>
+      </c>
+      <c r="AX281">
+        <f>SUM(AW$280:AW281)/AX$300</f>
+        <v>1.3649851632047478E-2</v>
+      </c>
+      <c r="AY281">
+        <f>SUM(AW$281:AW281)/AY$300</f>
+        <v>6.5750149432157803E-3</v>
+      </c>
+      <c r="AZ281" s="1">
+        <f t="shared" ref="AZ281:AZ299" si="60">ROUND(AV281,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BB281">
+        <v>5.3170000000000002</v>
+      </c>
+      <c r="BC281">
+        <v>5</v>
+      </c>
+      <c r="BD281">
+        <f>SUM(BC$280:BC281)/BD$300</f>
+        <v>1.1428571428571429E-2</v>
+      </c>
+      <c r="BE281">
+        <f>SUM(BC$281:BC281)/BE$300</f>
+        <v>3.599712023038157E-3</v>
+      </c>
+      <c r="BF281" s="1">
+        <f t="shared" ref="BF281:BF299" si="61">ROUND(BB281,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BH281">
+        <v>4.569</v>
+      </c>
+      <c r="BI281">
+        <v>5</v>
+      </c>
+      <c r="BJ281">
+        <f>SUM(BI$280:BI281)/BJ$300</f>
+        <v>1.1118832522585128E-2</v>
+      </c>
+      <c r="BK281">
+        <f>SUM(BI$281:BI281)/BK$300</f>
+        <v>3.5014005602240898E-3</v>
+      </c>
+      <c r="BL281" s="1">
+        <f t="shared" ref="BL281:BL299" si="62">ROUND(BH281,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BN281">
+        <v>5.0679999999999996</v>
+      </c>
+      <c r="BO281">
+        <v>41</v>
+      </c>
+      <c r="BP281">
+        <f>SUM(BO$280:BO281)/BP$300</f>
+        <v>4.0656763096168884E-2</v>
+      </c>
+      <c r="BQ281">
+        <f>SUM(BO$281:BO281)/BQ$300</f>
+        <v>3.2334384858044164E-2</v>
+      </c>
+      <c r="BR281" s="1">
+        <f t="shared" ref="BR281:BR299" si="63">ROUND(BN281,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BT281">
+        <v>4.694</v>
+      </c>
+      <c r="BU281">
+        <v>11</v>
+      </c>
+      <c r="BV281">
+        <f>SUM(BU$280:BU281)/BV$300</f>
+        <v>2.093244529019981E-2</v>
+      </c>
+      <c r="BW281">
+        <f>SUM(BU$281:BU281)/BW$300</f>
+        <v>1.0576923076923078E-2</v>
+      </c>
+      <c r="BX281" s="1">
+        <f t="shared" ref="BX281:BX299" si="64">ROUND(BT281,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>30</v>
+      </c>
+      <c r="C282">
+        <f>SUM(B$280:B282)/C$300</f>
+        <v>3.1454005934718102E-2</v>
+      </c>
+      <c r="D282">
+        <f>SUM(B$281:B282)/D$300</f>
+        <v>2.4506873879258817E-2</v>
+      </c>
+      <c r="E282" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>7.274</v>
+      </c>
+      <c r="H282">
+        <v>19</v>
+      </c>
+      <c r="I282">
+        <f>SUM(H$280:H282)/I$300</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J282">
+        <f>SUM(H$281:H282)/J$300</f>
+        <v>1.7278617710583154E-2</v>
+      </c>
+      <c r="K282" s="1">
+        <f t="shared" si="56"/>
+        <v>7</v>
+      </c>
+      <c r="M282">
+        <v>6.3380000000000001</v>
+      </c>
+      <c r="N282">
+        <v>21</v>
+      </c>
+      <c r="O282">
+        <f>SUM(N$280:N282)/O$300</f>
+        <v>2.571230020847811E-2</v>
+      </c>
+      <c r="P282">
+        <f>SUM(N$281:N282)/P$300</f>
+        <v>1.8207282913165267E-2</v>
+      </c>
+      <c r="Q282" s="1">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="S282">
+        <v>7.5359999999999996</v>
+      </c>
+      <c r="T282">
+        <v>40</v>
+      </c>
+      <c r="U282">
+        <f>SUM(T$280:T282)/U$300</f>
+        <v>7.1931196247068022E-2</v>
+      </c>
+      <c r="V282">
+        <f>SUM(T$281:T282)/V$300</f>
+        <v>6.3880126182965305E-2</v>
+      </c>
+      <c r="W282" s="1">
+        <f t="shared" si="58"/>
+        <v>8</v>
+      </c>
+      <c r="Y282">
+        <v>6.8479999999999999</v>
+      </c>
+      <c r="Z282">
+        <v>27</v>
+      </c>
+      <c r="AA282">
+        <f>SUM(Z$280:Z282)/AA$300</f>
+        <v>4.6622264509990484E-2</v>
+      </c>
+      <c r="AB282">
+        <f>SUM(Z$281:Z282)/AB$300</f>
+        <v>3.653846153846154E-2</v>
+      </c>
+      <c r="AC282" s="1">
+        <f t="shared" si="59"/>
+        <v>7</v>
+      </c>
+      <c r="AV282">
+        <v>8.6959999999999997</v>
+      </c>
+      <c r="AW282">
+        <v>30</v>
+      </c>
+      <c r="AX282">
+        <f>SUM(AW$280:AW282)/AX$300</f>
+        <v>3.1454005934718102E-2</v>
+      </c>
+      <c r="AY282">
+        <f>SUM(AW$281:AW282)/AY$300</f>
+        <v>2.4506873879258817E-2</v>
+      </c>
+      <c r="AZ282" s="1">
+        <f t="shared" si="60"/>
+        <v>9</v>
+      </c>
+      <c r="BB282">
+        <v>7.274</v>
+      </c>
+      <c r="BC282">
+        <v>19</v>
+      </c>
+      <c r="BD282">
+        <f>SUM(BC$280:BC282)/BD$300</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="BE282">
+        <f>SUM(BC$281:BC282)/BE$300</f>
+        <v>1.7278617710583154E-2</v>
+      </c>
+      <c r="BF282" s="1">
+        <f t="shared" si="61"/>
+        <v>7</v>
+      </c>
+      <c r="BH282">
+        <v>6.3380000000000001</v>
+      </c>
+      <c r="BI282">
+        <v>21</v>
+      </c>
+      <c r="BJ282">
+        <f>SUM(BI$280:BI282)/BJ$300</f>
+        <v>2.571230020847811E-2</v>
+      </c>
+      <c r="BK282">
+        <f>SUM(BI$281:BI282)/BK$300</f>
+        <v>1.8207282913165267E-2</v>
+      </c>
+      <c r="BL282" s="1">
+        <f t="shared" si="62"/>
+        <v>6</v>
+      </c>
+      <c r="BN282">
+        <v>7.5359999999999996</v>
+      </c>
+      <c r="BO282">
+        <v>40</v>
+      </c>
+      <c r="BP282">
+        <f>SUM(BO$280:BO282)/BP$300</f>
+        <v>7.1931196247068022E-2</v>
+      </c>
+      <c r="BQ282">
+        <f>SUM(BO$281:BO282)/BQ$300</f>
+        <v>6.3880126182965305E-2</v>
+      </c>
+      <c r="BR282" s="1">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="BT282">
+        <v>6.8479999999999999</v>
+      </c>
+      <c r="BU282">
+        <v>27</v>
+      </c>
+      <c r="BV282">
+        <f>SUM(BU$280:BU282)/BV$300</f>
+        <v>4.6622264509990484E-2</v>
+      </c>
+      <c r="BW282">
+        <f>SUM(BU$281:BU282)/BW$300</f>
+        <v>3.653846153846154E-2</v>
+      </c>
+      <c r="BX282" s="1">
+        <f t="shared" si="64"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>43</v>
+      </c>
+      <c r="C283">
+        <f>SUM(B$280:B283)/C$300</f>
+        <v>5.6973293768545992E-2</v>
+      </c>
+      <c r="D283">
+        <f>SUM(B$281:B283)/D$300</f>
+        <v>5.0209205020920501E-2</v>
+      </c>
+      <c r="E283" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>9.2309999999999999</v>
+      </c>
+      <c r="H283">
+        <v>21</v>
+      </c>
+      <c r="I283">
+        <f>SUM(H$280:H283)/I$300</f>
+        <v>0.04</v>
+      </c>
+      <c r="J283">
+        <f>SUM(H$281:H283)/J$300</f>
+        <v>3.2397408207343416E-2</v>
+      </c>
+      <c r="K283" s="1">
+        <f t="shared" si="56"/>
+        <v>9</v>
+      </c>
+      <c r="M283">
+        <v>8.1069999999999993</v>
+      </c>
+      <c r="N283">
+        <v>11</v>
+      </c>
+      <c r="O283">
+        <f>SUM(N$280:N283)/O$300</f>
+        <v>3.3356497567755383E-2</v>
+      </c>
+      <c r="P283">
+        <f>SUM(N$281:N283)/P$300</f>
+        <v>2.5910364145658265E-2</v>
+      </c>
+      <c r="Q283" s="1">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="S283">
+        <v>10.004</v>
+      </c>
+      <c r="T283">
+        <v>27</v>
+      </c>
+      <c r="U283">
+        <f>SUM(T$280:T283)/U$300</f>
+        <v>9.3041438623924944E-2</v>
+      </c>
+      <c r="V283">
+        <f>SUM(T$281:T283)/V$300</f>
+        <v>8.5173501577287064E-2</v>
+      </c>
+      <c r="W283" s="1">
+        <f t="shared" si="58"/>
+        <v>10</v>
+      </c>
+      <c r="Y283">
+        <v>9.0020000000000007</v>
+      </c>
+      <c r="Z283">
+        <v>16</v>
+      </c>
+      <c r="AA283">
+        <f>SUM(Z$280:Z283)/AA$300</f>
+        <v>6.1845861084681257E-2</v>
+      </c>
+      <c r="AB283">
+        <f>SUM(Z$281:Z283)/AB$300</f>
+        <v>5.1923076923076926E-2</v>
+      </c>
+      <c r="AC283" s="1">
+        <f t="shared" si="59"/>
+        <v>9</v>
+      </c>
+      <c r="AV283">
+        <v>11.124000000000001</v>
+      </c>
+      <c r="AW283">
+        <v>43</v>
+      </c>
+      <c r="AX283">
+        <f>SUM(AW$280:AW283)/AX$300</f>
+        <v>5.6973293768545992E-2</v>
+      </c>
+      <c r="AY283">
+        <f>SUM(AW$281:AW283)/AY$300</f>
+        <v>5.0209205020920501E-2</v>
+      </c>
+      <c r="AZ283" s="1">
+        <f t="shared" si="60"/>
+        <v>11</v>
+      </c>
+      <c r="BB283">
+        <v>9.2309999999999999</v>
+      </c>
+      <c r="BC283">
+        <v>21</v>
+      </c>
+      <c r="BD283">
+        <f>SUM(BC$280:BC283)/BD$300</f>
+        <v>0.04</v>
+      </c>
+      <c r="BE283">
+        <f>SUM(BC$281:BC283)/BE$300</f>
+        <v>3.2397408207343416E-2</v>
+      </c>
+      <c r="BF283" s="1">
+        <f t="shared" si="61"/>
+        <v>9</v>
+      </c>
+      <c r="BH283">
+        <v>8.1069999999999993</v>
+      </c>
+      <c r="BI283">
+        <v>11</v>
+      </c>
+      <c r="BJ283">
+        <f>SUM(BI$280:BI283)/BJ$300</f>
+        <v>3.3356497567755383E-2</v>
+      </c>
+      <c r="BK283">
+        <f>SUM(BI$281:BI283)/BK$300</f>
+        <v>2.5910364145658265E-2</v>
+      </c>
+      <c r="BL283" s="1">
+        <f t="shared" si="62"/>
+        <v>8</v>
+      </c>
+      <c r="BN283">
+        <v>10.004</v>
+      </c>
+      <c r="BO283">
+        <v>27</v>
+      </c>
+      <c r="BP283">
+        <f>SUM(BO$280:BO283)/BP$300</f>
+        <v>9.3041438623924944E-2</v>
+      </c>
+      <c r="BQ283">
+        <f>SUM(BO$281:BO283)/BQ$300</f>
+        <v>8.5173501577287064E-2</v>
+      </c>
+      <c r="BR283" s="1">
+        <f t="shared" si="63"/>
+        <v>10</v>
+      </c>
+      <c r="BT283">
+        <v>9.0020000000000007</v>
+      </c>
+      <c r="BU283">
+        <v>16</v>
+      </c>
+      <c r="BV283">
+        <f>SUM(BU$280:BU283)/BV$300</f>
+        <v>6.1845861084681257E-2</v>
+      </c>
+      <c r="BW283">
+        <f>SUM(BU$281:BU283)/BW$300</f>
+        <v>5.1923076923076926E-2</v>
+      </c>
+      <c r="BX283" s="1">
+        <f t="shared" si="64"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>18</v>
+      </c>
+      <c r="C284">
+        <f>SUM(B$280:B284)/C$300</f>
+        <v>6.7655786350148364E-2</v>
+      </c>
+      <c r="D284">
+        <f>SUM(B$281:B284)/D$300</f>
+        <v>6.0968320382546327E-2</v>
+      </c>
+      <c r="E284" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>11.188000000000001</v>
+      </c>
+      <c r="H284">
+        <v>13</v>
+      </c>
+      <c r="I284">
+        <f>SUM(H$280:H284)/I$300</f>
+        <v>4.9285714285714287E-2</v>
+      </c>
+      <c r="J284">
+        <f>SUM(H$281:H284)/J$300</f>
+        <v>4.1756659467242621E-2</v>
+      </c>
+      <c r="K284" s="1">
+        <f t="shared" si="56"/>
+        <v>11</v>
+      </c>
+      <c r="M284">
+        <v>9.8759999999999994</v>
+      </c>
+      <c r="N284">
+        <v>23</v>
+      </c>
+      <c r="O284">
+        <f>SUM(N$280:N284)/O$300</f>
+        <v>4.9339819318971509E-2</v>
+      </c>
+      <c r="P284">
+        <f>SUM(N$281:N284)/P$300</f>
+        <v>4.2016806722689079E-2</v>
+      </c>
+      <c r="Q284" s="1">
+        <f t="shared" si="57"/>
+        <v>10</v>
+      </c>
+      <c r="S284">
+        <v>12.472</v>
+      </c>
+      <c r="T284">
+        <v>22</v>
+      </c>
+      <c r="U284">
+        <f>SUM(T$280:T284)/U$300</f>
+        <v>0.11024237685691947</v>
+      </c>
+      <c r="V284">
+        <f>SUM(T$281:T284)/V$300</f>
+        <v>0.10252365930599369</v>
+      </c>
+      <c r="W284" s="1">
+        <f t="shared" si="58"/>
+        <v>12</v>
+      </c>
+      <c r="Y284">
+        <v>11.156000000000001</v>
+      </c>
+      <c r="Z284">
+        <v>12</v>
+      </c>
+      <c r="AA284">
+        <f>SUM(Z$280:Z284)/AA$300</f>
+        <v>7.3263558515699337E-2</v>
+      </c>
+      <c r="AB284">
+        <f>SUM(Z$281:Z284)/AB$300</f>
+        <v>6.3461538461538458E-2</v>
+      </c>
+      <c r="AC284" s="1">
+        <f t="shared" si="59"/>
+        <v>11</v>
+      </c>
+      <c r="AV284">
+        <v>13.552</v>
+      </c>
+      <c r="AW284">
+        <v>18</v>
+      </c>
+      <c r="AX284">
+        <f>SUM(AW$280:AW284)/AX$300</f>
+        <v>6.7655786350148364E-2</v>
+      </c>
+      <c r="AY284">
+        <f>SUM(AW$281:AW284)/AY$300</f>
+        <v>6.0968320382546327E-2</v>
+      </c>
+      <c r="AZ284" s="1">
+        <f t="shared" si="60"/>
+        <v>14</v>
+      </c>
+      <c r="BB284">
+        <v>11.188000000000001</v>
+      </c>
+      <c r="BC284">
+        <v>13</v>
+      </c>
+      <c r="BD284">
+        <f>SUM(BC$280:BC284)/BD$300</f>
+        <v>4.9285714285714287E-2</v>
+      </c>
+      <c r="BE284">
+        <f>SUM(BC$281:BC284)/BE$300</f>
+        <v>4.1756659467242621E-2</v>
+      </c>
+      <c r="BF284" s="1">
+        <f t="shared" si="61"/>
+        <v>11</v>
+      </c>
+      <c r="BH284">
+        <v>9.8759999999999994</v>
+      </c>
+      <c r="BI284">
+        <v>23</v>
+      </c>
+      <c r="BJ284">
+        <f>SUM(BI$280:BI284)/BJ$300</f>
+        <v>4.9339819318971509E-2</v>
+      </c>
+      <c r="BK284">
+        <f>SUM(BI$281:BI284)/BK$300</f>
+        <v>4.2016806722689079E-2</v>
+      </c>
+      <c r="BL284" s="1">
+        <f t="shared" si="62"/>
+        <v>10</v>
+      </c>
+      <c r="BN284">
+        <v>12.472</v>
+      </c>
+      <c r="BO284">
+        <v>22</v>
+      </c>
+      <c r="BP284">
+        <f>SUM(BO$280:BO284)/BP$300</f>
+        <v>0.11024237685691947</v>
+      </c>
+      <c r="BQ284">
+        <f>SUM(BO$281:BO284)/BQ$300</f>
+        <v>0.10252365930599369</v>
+      </c>
+      <c r="BR284" s="1">
+        <f t="shared" si="63"/>
+        <v>12</v>
+      </c>
+      <c r="BT284">
+        <v>11.156000000000001</v>
+      </c>
+      <c r="BU284">
+        <v>12</v>
+      </c>
+      <c r="BV284">
+        <f>SUM(BU$280:BU284)/BV$300</f>
+        <v>7.3263558515699337E-2</v>
+      </c>
+      <c r="BW284">
+        <f>SUM(BU$281:BU284)/BW$300</f>
+        <v>6.3461538461538458E-2</v>
+      </c>
+      <c r="BX284" s="1">
+        <f t="shared" si="64"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>43</v>
+      </c>
+      <c r="C285">
+        <f>SUM(B$280:B285)/C$300</f>
+        <v>9.3175074183976261E-2</v>
+      </c>
+      <c r="D285">
+        <f>SUM(B$281:B285)/D$300</f>
+        <v>8.6670651524208012E-2</v>
+      </c>
+      <c r="E285" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>13.145</v>
+      </c>
+      <c r="H285">
+        <v>10</v>
+      </c>
+      <c r="I285">
+        <f>SUM(H$280:H285)/I$300</f>
+        <v>5.6428571428571425E-2</v>
+      </c>
+      <c r="J285">
+        <f>SUM(H$281:H285)/J$300</f>
+        <v>4.8956083513318933E-2</v>
+      </c>
+      <c r="K285" s="1">
+        <f t="shared" si="56"/>
+        <v>13</v>
+      </c>
+      <c r="M285">
+        <v>11.645</v>
+      </c>
+      <c r="N285">
+        <v>24</v>
+      </c>
+      <c r="O285">
+        <f>SUM(N$280:N285)/O$300</f>
+        <v>6.6018068102849201E-2</v>
+      </c>
+      <c r="P285">
+        <f>SUM(N$281:N285)/P$300</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="Q285" s="1">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="S285">
+        <v>14.94</v>
+      </c>
+      <c r="T285">
+        <v>12</v>
+      </c>
+      <c r="U285">
+        <f>SUM(T$280:T285)/U$300</f>
+        <v>0.11962470680218922</v>
+      </c>
+      <c r="V285">
+        <f>SUM(T$281:T285)/V$300</f>
+        <v>0.11198738170347003</v>
+      </c>
+      <c r="W285" s="1">
+        <f t="shared" si="58"/>
+        <v>15</v>
+      </c>
+      <c r="Y285">
+        <v>13.31</v>
+      </c>
+      <c r="Z285">
+        <v>2</v>
+      </c>
+      <c r="AA285">
+        <f>SUM(Z$280:Z285)/AA$300</f>
+        <v>7.516650808753568E-2</v>
+      </c>
+      <c r="AB285">
+        <f>SUM(Z$281:Z285)/AB$300</f>
+        <v>6.5384615384615388E-2</v>
+      </c>
+      <c r="AC285" s="1">
+        <f t="shared" si="59"/>
+        <v>13</v>
+      </c>
+      <c r="AV285">
+        <v>15.98</v>
+      </c>
+      <c r="AW285">
+        <v>43</v>
+      </c>
+      <c r="AX285">
+        <f>SUM(AW$280:AW285)/AX$300</f>
+        <v>9.3175074183976261E-2</v>
+      </c>
+      <c r="AY285">
+        <f>SUM(AW$281:AW285)/AY$300</f>
+        <v>8.6670651524208012E-2</v>
+      </c>
+      <c r="AZ285" s="1">
+        <f t="shared" si="60"/>
+        <v>16</v>
+      </c>
+      <c r="BB285">
+        <v>13.145</v>
+      </c>
+      <c r="BC285">
+        <v>10</v>
+      </c>
+      <c r="BD285">
+        <f>SUM(BC$280:BC285)/BD$300</f>
+        <v>5.6428571428571425E-2</v>
+      </c>
+      <c r="BE285">
+        <f>SUM(BC$281:BC285)/BE$300</f>
+        <v>4.8956083513318933E-2</v>
+      </c>
+      <c r="BF285" s="1">
+        <f t="shared" si="61"/>
+        <v>13</v>
+      </c>
+      <c r="BH285">
+        <v>11.645</v>
+      </c>
+      <c r="BI285">
+        <v>24</v>
+      </c>
+      <c r="BJ285">
+        <f>SUM(BI$280:BI285)/BJ$300</f>
+        <v>6.6018068102849201E-2</v>
+      </c>
+      <c r="BK285">
+        <f>SUM(BI$281:BI285)/BK$300</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="BL285" s="1">
+        <f t="shared" si="62"/>
+        <v>12</v>
+      </c>
+      <c r="BN285">
+        <v>14.94</v>
+      </c>
+      <c r="BO285">
+        <v>12</v>
+      </c>
+      <c r="BP285">
+        <f>SUM(BO$280:BO285)/BP$300</f>
+        <v>0.11962470680218922</v>
+      </c>
+      <c r="BQ285">
+        <f>SUM(BO$281:BO285)/BQ$300</f>
+        <v>0.11198738170347003</v>
+      </c>
+      <c r="BR285" s="1">
+        <f t="shared" si="63"/>
+        <v>15</v>
+      </c>
+      <c r="BT285">
+        <v>13.31</v>
+      </c>
+      <c r="BU285">
+        <v>2</v>
+      </c>
+      <c r="BV285">
+        <f>SUM(BU$280:BU285)/BV$300</f>
+        <v>7.516650808753568E-2</v>
+      </c>
+      <c r="BW285">
+        <f>SUM(BU$281:BU285)/BW$300</f>
+        <v>6.5384615384615388E-2</v>
+      </c>
+      <c r="BX285" s="1">
+        <f t="shared" si="64"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>74</v>
+      </c>
+      <c r="C286">
+        <f>SUM(B$280:B286)/C$300</f>
+        <v>0.13709198813056381</v>
+      </c>
+      <c r="D286">
+        <f>SUM(B$281:B286)/D$300</f>
+        <v>0.13090257023311416</v>
+      </c>
+      <c r="E286" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>15.102</v>
+      </c>
+      <c r="H286">
+        <v>44</v>
+      </c>
+      <c r="I286">
+        <f>SUM(H$280:H286)/I$300</f>
+        <v>8.7857142857142856E-2</v>
+      </c>
+      <c r="J286">
+        <f>SUM(H$281:H286)/J$300</f>
+        <v>8.0633549316054709E-2</v>
+      </c>
+      <c r="K286" s="1">
+        <f t="shared" si="56"/>
+        <v>15</v>
+      </c>
+      <c r="M286">
+        <v>13.414</v>
+      </c>
+      <c r="N286">
+        <v>10</v>
+      </c>
+      <c r="O286">
+        <f>SUM(N$280:N286)/O$300</f>
+        <v>7.2967338429464901E-2</v>
+      </c>
+      <c r="P286">
+        <f>SUM(N$281:N286)/P$300</f>
+        <v>6.5826330532212887E-2</v>
+      </c>
+      <c r="Q286" s="1">
+        <f t="shared" si="57"/>
+        <v>13</v>
+      </c>
+      <c r="S286">
+        <v>17.408000000000001</v>
+      </c>
+      <c r="T286">
+        <v>44</v>
+      </c>
+      <c r="U286">
+        <f>SUM(T$280:T286)/U$300</f>
+        <v>0.15402658326817825</v>
+      </c>
+      <c r="V286">
+        <f>SUM(T$281:T286)/V$300</f>
+        <v>0.14668769716088328</v>
+      </c>
+      <c r="W286" s="1">
+        <f t="shared" si="58"/>
+        <v>17</v>
+      </c>
+      <c r="Y286">
+        <v>15.464</v>
+      </c>
+      <c r="Z286">
+        <v>16</v>
+      </c>
+      <c r="AA286">
+        <f>SUM(Z$280:Z286)/AA$300</f>
+        <v>9.0390104662226453E-2</v>
+      </c>
+      <c r="AB286">
+        <f>SUM(Z$281:Z286)/AB$300</f>
+        <v>8.0769230769230774E-2</v>
+      </c>
+      <c r="AC286" s="1">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="AV286">
+        <v>18.408000000000001</v>
+      </c>
+      <c r="AW286">
+        <v>74</v>
+      </c>
+      <c r="AX286">
+        <f>SUM(AW$280:AW286)/AX$300</f>
+        <v>0.13709198813056381</v>
+      </c>
+      <c r="AY286">
+        <f>SUM(AW$281:AW286)/AY$300</f>
+        <v>0.13090257023311416</v>
+      </c>
+      <c r="AZ286" s="1">
+        <f t="shared" si="60"/>
+        <v>18</v>
+      </c>
+      <c r="BB286">
+        <v>15.102</v>
+      </c>
+      <c r="BC286">
+        <v>44</v>
+      </c>
+      <c r="BD286">
+        <f>SUM(BC$280:BC286)/BD$300</f>
+        <v>8.7857142857142856E-2</v>
+      </c>
+      <c r="BE286">
+        <f>SUM(BC$281:BC286)/BE$300</f>
+        <v>8.0633549316054709E-2</v>
+      </c>
+      <c r="BF286" s="1">
+        <f t="shared" si="61"/>
+        <v>15</v>
+      </c>
+      <c r="BH286">
+        <v>13.414</v>
+      </c>
+      <c r="BI286">
+        <v>10</v>
+      </c>
+      <c r="BJ286">
+        <f>SUM(BI$280:BI286)/BJ$300</f>
+        <v>7.2967338429464901E-2</v>
+      </c>
+      <c r="BK286">
+        <f>SUM(BI$281:BI286)/BK$300</f>
+        <v>6.5826330532212887E-2</v>
+      </c>
+      <c r="BL286" s="1">
+        <f t="shared" si="62"/>
+        <v>13</v>
+      </c>
+      <c r="BN286">
+        <v>17.408000000000001</v>
+      </c>
+      <c r="BO286">
+        <v>44</v>
+      </c>
+      <c r="BP286">
+        <f>SUM(BO$280:BO286)/BP$300</f>
+        <v>0.15402658326817825</v>
+      </c>
+      <c r="BQ286">
+        <f>SUM(BO$281:BO286)/BQ$300</f>
+        <v>0.14668769716088328</v>
+      </c>
+      <c r="BR286" s="1">
+        <f t="shared" si="63"/>
+        <v>17</v>
+      </c>
+      <c r="BT286">
+        <v>15.464</v>
+      </c>
+      <c r="BU286">
+        <v>16</v>
+      </c>
+      <c r="BV286">
+        <f>SUM(BU$280:BU286)/BV$300</f>
+        <v>9.0390104662226453E-2</v>
+      </c>
+      <c r="BW286">
+        <f>SUM(BU$281:BU286)/BW$300</f>
+        <v>8.0769230769230774E-2</v>
+      </c>
+      <c r="BX286" s="1">
+        <f t="shared" si="64"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>20</v>
+      </c>
+      <c r="C287">
+        <f>SUM(B$280:B287)/C$300</f>
+        <v>0.14896142433234422</v>
+      </c>
+      <c r="D287">
+        <f>SUM(B$281:B287)/D$300</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E287" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>17.059000000000001</v>
+      </c>
+      <c r="H287">
+        <v>4</v>
+      </c>
+      <c r="I287">
+        <f>SUM(H$280:H287)/I$300</f>
+        <v>9.071428571428572E-2</v>
+      </c>
+      <c r="J287">
+        <f>SUM(H$281:H287)/J$300</f>
+        <v>8.3513318934485242E-2</v>
+      </c>
+      <c r="K287" s="1">
+        <f t="shared" si="56"/>
+        <v>17</v>
+      </c>
+      <c r="M287">
+        <v>15.183</v>
+      </c>
+      <c r="N287">
+        <v>7</v>
+      </c>
+      <c r="O287">
+        <f>SUM(N$280:N287)/O$300</f>
+        <v>7.7831827658095903E-2</v>
+      </c>
+      <c r="P287">
+        <f>SUM(N$281:N287)/P$300</f>
+        <v>7.0728291316526609E-2</v>
+      </c>
+      <c r="Q287" s="1">
+        <f t="shared" si="57"/>
+        <v>15</v>
+      </c>
+      <c r="S287">
+        <v>19.876000000000001</v>
+      </c>
+      <c r="T287">
+        <v>48</v>
+      </c>
+      <c r="U287">
+        <f>SUM(T$280:T287)/U$300</f>
+        <v>0.19155590304925724</v>
+      </c>
+      <c r="V287">
+        <f>SUM(T$281:T287)/V$300</f>
+        <v>0.18454258675078863</v>
+      </c>
+      <c r="W287" s="1">
+        <f t="shared" si="58"/>
+        <v>20</v>
+      </c>
+      <c r="Y287">
+        <v>17.617999999999999</v>
+      </c>
+      <c r="Z287">
+        <v>37</v>
+      </c>
+      <c r="AA287">
+        <f>SUM(Z$280:Z287)/AA$300</f>
+        <v>0.12559467174119887</v>
+      </c>
+      <c r="AB287">
+        <f>SUM(Z$281:Z287)/AB$300</f>
+        <v>0.11634615384615385</v>
+      </c>
+      <c r="AC287" s="1">
+        <f t="shared" si="59"/>
+        <v>18</v>
+      </c>
+      <c r="AV287">
+        <v>20.835999999999999</v>
+      </c>
+      <c r="AW287">
+        <v>20</v>
+      </c>
+      <c r="AX287">
+        <f>SUM(AW$280:AW287)/AX$300</f>
+        <v>0.14896142433234422</v>
+      </c>
+      <c r="AY287">
+        <f>SUM(AW$281:AW287)/AY$300</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AZ287" s="1">
+        <f t="shared" si="60"/>
+        <v>21</v>
+      </c>
+      <c r="BB287">
+        <v>17.059000000000001</v>
+      </c>
+      <c r="BC287">
+        <v>4</v>
+      </c>
+      <c r="BD287">
+        <f>SUM(BC$280:BC287)/BD$300</f>
+        <v>9.071428571428572E-2</v>
+      </c>
+      <c r="BE287">
+        <f>SUM(BC$281:BC287)/BE$300</f>
+        <v>8.3513318934485242E-2</v>
+      </c>
+      <c r="BF287" s="1">
+        <f t="shared" si="61"/>
+        <v>17</v>
+      </c>
+      <c r="BH287">
+        <v>15.183</v>
+      </c>
+      <c r="BI287">
+        <v>7</v>
+      </c>
+      <c r="BJ287">
+        <f>SUM(BI$280:BI287)/BJ$300</f>
+        <v>7.7831827658095903E-2</v>
+      </c>
+      <c r="BK287">
+        <f>SUM(BI$281:BI287)/BK$300</f>
+        <v>7.0728291316526609E-2</v>
+      </c>
+      <c r="BL287" s="1">
+        <f t="shared" si="62"/>
+        <v>15</v>
+      </c>
+      <c r="BN287">
+        <v>19.876000000000001</v>
+      </c>
+      <c r="BO287">
+        <v>48</v>
+      </c>
+      <c r="BP287">
+        <f>SUM(BO$280:BO287)/BP$300</f>
+        <v>0.19155590304925724</v>
+      </c>
+      <c r="BQ287">
+        <f>SUM(BO$281:BO287)/BQ$300</f>
+        <v>0.18454258675078863</v>
+      </c>
+      <c r="BR287" s="1">
+        <f t="shared" si="63"/>
+        <v>20</v>
+      </c>
+      <c r="BT287">
+        <v>17.617999999999999</v>
+      </c>
+      <c r="BU287">
+        <v>37</v>
+      </c>
+      <c r="BV287">
+        <f>SUM(BU$280:BU287)/BV$300</f>
+        <v>0.12559467174119887</v>
+      </c>
+      <c r="BW287">
+        <f>SUM(BU$281:BU287)/BW$300</f>
+        <v>0.11634615384615385</v>
+      </c>
+      <c r="BX287" s="1">
+        <f t="shared" si="64"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="288" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>50</v>
+      </c>
+      <c r="C288">
+        <f>SUM(B$280:B288)/C$300</f>
+        <v>0.17863501483679525</v>
+      </c>
+      <c r="D288">
+        <f>SUM(B$281:B288)/D$300</f>
+        <v>0.17274357441721458</v>
+      </c>
+      <c r="E288" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>19.015999999999998</v>
+      </c>
+      <c r="H288">
+        <v>15</v>
+      </c>
+      <c r="I288">
+        <f>SUM(H$280:H288)/I$300</f>
+        <v>0.10142857142857142</v>
+      </c>
+      <c r="J288">
+        <f>SUM(H$281:H288)/J$300</f>
+        <v>9.4312455003599707E-2</v>
+      </c>
+      <c r="K288" s="1">
+        <f t="shared" si="56"/>
+        <v>19</v>
+      </c>
+      <c r="M288">
+        <v>16.952000000000002</v>
+      </c>
+      <c r="N288">
+        <v>13</v>
+      </c>
+      <c r="O288">
+        <f>SUM(N$280:N288)/O$300</f>
+        <v>8.6865879082696315E-2</v>
+      </c>
+      <c r="P288">
+        <f>SUM(N$281:N288)/P$300</f>
+        <v>7.9831932773109238E-2</v>
+      </c>
+      <c r="Q288" s="1">
+        <f t="shared" si="57"/>
+        <v>17</v>
+      </c>
+      <c r="S288">
+        <v>22.344000000000001</v>
+      </c>
+      <c r="T288">
+        <v>28</v>
+      </c>
+      <c r="U288">
+        <f>SUM(T$280:T288)/U$300</f>
+        <v>0.21344800625488664</v>
+      </c>
+      <c r="V288">
+        <f>SUM(T$281:T288)/V$300</f>
+        <v>0.20662460567823343</v>
+      </c>
+      <c r="W288" s="1">
+        <f t="shared" si="58"/>
+        <v>22</v>
+      </c>
+      <c r="Y288">
+        <v>19.771999999999998</v>
+      </c>
+      <c r="Z288">
+        <v>42</v>
+      </c>
+      <c r="AA288">
+        <f>SUM(Z$280:Z288)/AA$300</f>
+        <v>0.16555661274976213</v>
+      </c>
+      <c r="AB288">
+        <f>SUM(Z$281:Z288)/AB$300</f>
+        <v>0.15673076923076923</v>
+      </c>
+      <c r="AC288" s="1">
+        <f t="shared" si="59"/>
+        <v>20</v>
+      </c>
+      <c r="AV288">
+        <v>23.263999999999999</v>
+      </c>
+      <c r="AW288">
+        <v>50</v>
+      </c>
+      <c r="AX288">
+        <f>SUM(AW$280:AW288)/AX$300</f>
+        <v>0.17863501483679525</v>
+      </c>
+      <c r="AY288">
+        <f>SUM(AW$281:AW288)/AY$300</f>
+        <v>0.17274357441721458</v>
+      </c>
+      <c r="AZ288" s="1">
+        <f t="shared" si="60"/>
+        <v>23</v>
+      </c>
+      <c r="BB288">
+        <v>19.015999999999998</v>
+      </c>
+      <c r="BC288">
+        <v>15</v>
+      </c>
+      <c r="BD288">
+        <f>SUM(BC$280:BC288)/BD$300</f>
+        <v>0.10142857142857142</v>
+      </c>
+      <c r="BE288">
+        <f>SUM(BC$281:BC288)/BE$300</f>
+        <v>9.4312455003599707E-2</v>
+      </c>
+      <c r="BF288" s="1">
+        <f t="shared" si="61"/>
+        <v>19</v>
+      </c>
+      <c r="BH288">
+        <v>16.952000000000002</v>
+      </c>
+      <c r="BI288">
+        <v>13</v>
+      </c>
+      <c r="BJ288">
+        <f>SUM(BI$280:BI288)/BJ$300</f>
+        <v>8.6865879082696315E-2</v>
+      </c>
+      <c r="BK288">
+        <f>SUM(BI$281:BI288)/BK$300</f>
+        <v>7.9831932773109238E-2</v>
+      </c>
+      <c r="BL288" s="1">
+        <f t="shared" si="62"/>
+        <v>17</v>
+      </c>
+      <c r="BN288">
+        <v>22.344000000000001</v>
+      </c>
+      <c r="BO288">
+        <v>28</v>
+      </c>
+      <c r="BP288">
+        <f>SUM(BO$280:BO288)/BP$300</f>
+        <v>0.21344800625488664</v>
+      </c>
+      <c r="BQ288">
+        <f>SUM(BO$281:BO288)/BQ$300</f>
+        <v>0.20662460567823343</v>
+      </c>
+      <c r="BR288" s="1">
+        <f t="shared" si="63"/>
+        <v>22</v>
+      </c>
+      <c r="BT288">
+        <v>19.771999999999998</v>
+      </c>
+      <c r="BU288">
+        <v>42</v>
+      </c>
+      <c r="BV288">
+        <f>SUM(BU$280:BU288)/BV$300</f>
+        <v>0.16555661274976213</v>
+      </c>
+      <c r="BW288">
+        <f>SUM(BU$281:BU288)/BW$300</f>
+        <v>0.15673076923076923</v>
+      </c>
+      <c r="BX288" s="1">
+        <f t="shared" si="64"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>55</v>
+      </c>
+      <c r="C289">
+        <f>SUM(B$280:B289)/C$300</f>
+        <v>0.21127596439169138</v>
+      </c>
+      <c r="D289">
+        <f>SUM(B$281:B289)/D$300</f>
+        <v>0.20561864913329347</v>
+      </c>
+      <c r="E289" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>20.972999999999999</v>
+      </c>
+      <c r="H289">
+        <v>40</v>
+      </c>
+      <c r="I289">
+        <f>SUM(H$280:H289)/I$300</f>
+        <v>0.13</v>
+      </c>
+      <c r="J289">
+        <f>SUM(H$281:H289)/J$300</f>
+        <v>0.12311015118790497</v>
+      </c>
+      <c r="K289" s="1">
+        <f t="shared" si="56"/>
+        <v>21</v>
+      </c>
+      <c r="M289">
+        <v>18.721</v>
+      </c>
+      <c r="N289">
+        <v>38</v>
+      </c>
+      <c r="O289">
+        <f>SUM(N$280:N289)/O$300</f>
+        <v>0.113273106323836</v>
+      </c>
+      <c r="P289">
+        <f>SUM(N$281:N289)/P$300</f>
+        <v>0.10644257703081232</v>
+      </c>
+      <c r="Q289" s="1">
+        <f t="shared" si="57"/>
+        <v>19</v>
+      </c>
+      <c r="S289">
+        <v>24.812000000000001</v>
+      </c>
+      <c r="T289">
+        <v>8</v>
+      </c>
+      <c r="U289">
+        <f>SUM(T$280:T289)/U$300</f>
+        <v>0.21970289288506645</v>
+      </c>
+      <c r="V289">
+        <f>SUM(T$281:T289)/V$300</f>
+        <v>0.21293375394321767</v>
+      </c>
+      <c r="W289" s="1">
+        <f t="shared" si="58"/>
+        <v>25</v>
+      </c>
+      <c r="Y289">
+        <v>21.925999999999998</v>
+      </c>
+      <c r="Z289">
+        <v>12</v>
+      </c>
+      <c r="AA289">
+        <f>SUM(Z$280:Z289)/AA$300</f>
+        <v>0.17697431018078022</v>
+      </c>
+      <c r="AB289">
+        <f>SUM(Z$281:Z289)/AB$300</f>
+        <v>0.16826923076923078</v>
+      </c>
+      <c r="AC289" s="1">
+        <f t="shared" si="59"/>
+        <v>22</v>
+      </c>
+      <c r="AV289">
+        <v>25.692</v>
+      </c>
+      <c r="AW289">
+        <v>55</v>
+      </c>
+      <c r="AX289">
+        <f>SUM(AW$280:AW289)/AX$300</f>
+        <v>0.21127596439169138</v>
+      </c>
+      <c r="AY289">
+        <f>SUM(AW$281:AW289)/AY$300</f>
+        <v>0.20561864913329347</v>
+      </c>
+      <c r="AZ289" s="1">
+        <f t="shared" si="60"/>
+        <v>26</v>
+      </c>
+      <c r="BB289">
+        <v>20.972999999999999</v>
+      </c>
+      <c r="BC289">
+        <v>40</v>
+      </c>
+      <c r="BD289">
+        <f>SUM(BC$280:BC289)/BD$300</f>
+        <v>0.13</v>
+      </c>
+      <c r="BE289">
+        <f>SUM(BC$281:BC289)/BE$300</f>
+        <v>0.12311015118790497</v>
+      </c>
+      <c r="BF289" s="1">
+        <f t="shared" si="61"/>
+        <v>21</v>
+      </c>
+      <c r="BH289">
+        <v>18.721</v>
+      </c>
+      <c r="BI289">
+        <v>38</v>
+      </c>
+      <c r="BJ289">
+        <f>SUM(BI$280:BI289)/BJ$300</f>
+        <v>0.113273106323836</v>
+      </c>
+      <c r="BK289">
+        <f>SUM(BI$281:BI289)/BK$300</f>
+        <v>0.10644257703081232</v>
+      </c>
+      <c r="BL289" s="1">
+        <f t="shared" si="62"/>
+        <v>19</v>
+      </c>
+      <c r="BN289">
+        <v>24.812000000000001</v>
+      </c>
+      <c r="BO289">
+        <v>8</v>
+      </c>
+      <c r="BP289">
+        <f>SUM(BO$280:BO289)/BP$300</f>
+        <v>0.21970289288506645</v>
+      </c>
+      <c r="BQ289">
+        <f>SUM(BO$281:BO289)/BQ$300</f>
+        <v>0.21293375394321767</v>
+      </c>
+      <c r="BR289" s="1">
+        <f t="shared" si="63"/>
+        <v>25</v>
+      </c>
+      <c r="BT289">
+        <v>21.925999999999998</v>
+      </c>
+      <c r="BU289">
+        <v>12</v>
+      </c>
+      <c r="BV289">
+        <f>SUM(BU$280:BU289)/BV$300</f>
+        <v>0.17697431018078022</v>
+      </c>
+      <c r="BW289">
+        <f>SUM(BU$281:BU289)/BW$300</f>
+        <v>0.16826923076923078</v>
+      </c>
+      <c r="BX289" s="1">
+        <f t="shared" si="64"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>46</v>
+      </c>
+      <c r="C290">
+        <f>SUM(B$280:B290)/C$300</f>
+        <v>0.23857566765578636</v>
+      </c>
+      <c r="D290">
+        <f>SUM(B$281:B290)/D$300</f>
+        <v>0.23311416616855948</v>
+      </c>
+      <c r="E290" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>22.93</v>
+      </c>
+      <c r="H290">
+        <v>44</v>
+      </c>
+      <c r="I290">
+        <f>SUM(H$280:H290)/I$300</f>
+        <v>0.16142857142857142</v>
+      </c>
+      <c r="J290">
+        <f>SUM(H$281:H290)/J$300</f>
+        <v>0.15478761699064075</v>
+      </c>
+      <c r="K290" s="1">
+        <f t="shared" si="56"/>
+        <v>23</v>
+      </c>
+      <c r="M290">
+        <v>20.49</v>
+      </c>
+      <c r="N290">
+        <v>48</v>
+      </c>
+      <c r="O290">
+        <f>SUM(N$280:N290)/O$300</f>
+        <v>0.14662960389159138</v>
+      </c>
+      <c r="P290">
+        <f>SUM(N$281:N290)/P$300</f>
+        <v>0.14005602240896359</v>
+      </c>
+      <c r="Q290" s="1">
+        <f t="shared" si="57"/>
+        <v>20</v>
+      </c>
+      <c r="S290">
+        <v>27.28</v>
+      </c>
+      <c r="T290">
+        <v>17</v>
+      </c>
+      <c r="U290">
+        <f>SUM(T$280:T290)/U$300</f>
+        <v>0.23299452697419859</v>
+      </c>
+      <c r="V290">
+        <f>SUM(T$281:T290)/V$300</f>
+        <v>0.22634069400630916</v>
+      </c>
+      <c r="W290" s="1">
+        <f t="shared" si="58"/>
+        <v>27</v>
+      </c>
+      <c r="Y290">
+        <v>24.08</v>
+      </c>
+      <c r="Z290">
+        <v>7</v>
+      </c>
+      <c r="AA290">
+        <f>SUM(Z$280:Z290)/AA$300</f>
+        <v>0.18363463368220742</v>
+      </c>
+      <c r="AB290">
+        <f>SUM(Z$281:Z290)/AB$300</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AC290" s="1">
+        <f t="shared" si="59"/>
+        <v>24</v>
+      </c>
+      <c r="AV290">
+        <v>28.12</v>
+      </c>
+      <c r="AW290">
+        <v>46</v>
+      </c>
+      <c r="AX290">
+        <f>SUM(AW$280:AW290)/AX$300</f>
+        <v>0.23857566765578636</v>
+      </c>
+      <c r="AY290">
+        <f>SUM(AW$281:AW290)/AY$300</f>
+        <v>0.23311416616855948</v>
+      </c>
+      <c r="AZ290" s="1">
+        <f t="shared" si="60"/>
+        <v>28</v>
+      </c>
+      <c r="BB290">
+        <v>22.93</v>
+      </c>
+      <c r="BC290">
+        <v>44</v>
+      </c>
+      <c r="BD290">
+        <f>SUM(BC$280:BC290)/BD$300</f>
+        <v>0.16142857142857142</v>
+      </c>
+      <c r="BE290">
+        <f>SUM(BC$281:BC290)/BE$300</f>
+        <v>0.15478761699064075</v>
+      </c>
+      <c r="BF290" s="1">
+        <f t="shared" si="61"/>
+        <v>23</v>
+      </c>
+      <c r="BH290">
+        <v>20.49</v>
+      </c>
+      <c r="BI290">
+        <v>48</v>
+      </c>
+      <c r="BJ290">
+        <f>SUM(BI$280:BI290)/BJ$300</f>
+        <v>0.14662960389159138</v>
+      </c>
+      <c r="BK290">
+        <f>SUM(BI$281:BI290)/BK$300</f>
+        <v>0.14005602240896359</v>
+      </c>
+      <c r="BL290" s="1">
+        <f t="shared" si="62"/>
+        <v>20</v>
+      </c>
+      <c r="BN290">
+        <v>27.28</v>
+      </c>
+      <c r="BO290">
+        <v>17</v>
+      </c>
+      <c r="BP290">
+        <f>SUM(BO$280:BO290)/BP$300</f>
+        <v>0.23299452697419859</v>
+      </c>
+      <c r="BQ290">
+        <f>SUM(BO$281:BO290)/BQ$300</f>
+        <v>0.22634069400630916</v>
+      </c>
+      <c r="BR290" s="1">
+        <f t="shared" si="63"/>
+        <v>27</v>
+      </c>
+      <c r="BT290">
+        <v>24.08</v>
+      </c>
+      <c r="BU290">
+        <v>7</v>
+      </c>
+      <c r="BV290">
+        <f>SUM(BU$280:BU290)/BV$300</f>
+        <v>0.18363463368220742</v>
+      </c>
+      <c r="BW290">
+        <f>SUM(BU$281:BU290)/BW$300</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="BX290" s="1">
+        <f t="shared" si="64"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="291" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>16</v>
+      </c>
+      <c r="C291">
+        <f>SUM(B$280:B291)/C$300</f>
+        <v>0.24807121661721068</v>
+      </c>
+      <c r="D291">
+        <f>SUM(B$281:B291)/D$300</f>
+        <v>0.24267782426778242</v>
+      </c>
+      <c r="E291" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>24.887</v>
+      </c>
+      <c r="H291">
+        <v>45</v>
+      </c>
+      <c r="I291">
+        <f>SUM(H$280:H291)/I$300</f>
+        <v>0.19357142857142856</v>
+      </c>
+      <c r="J291">
+        <f>SUM(H$281:H291)/J$300</f>
+        <v>0.18718502519798416</v>
+      </c>
+      <c r="K291" s="1">
+        <f t="shared" si="56"/>
+        <v>25</v>
+      </c>
+      <c r="M291">
+        <v>22.259</v>
+      </c>
+      <c r="N291">
+        <v>36</v>
+      </c>
+      <c r="O291">
+        <f>SUM(N$280:N291)/O$300</f>
+        <v>0.17164697706740792</v>
+      </c>
+      <c r="P291">
+        <f>SUM(N$281:N291)/P$300</f>
+        <v>0.16526610644257703</v>
+      </c>
+      <c r="Q291" s="1">
+        <f t="shared" si="57"/>
+        <v>22</v>
+      </c>
+      <c r="S291">
+        <v>29.748000000000001</v>
+      </c>
+      <c r="T291">
+        <v>895</v>
+      </c>
+      <c r="U291">
+        <f>SUM(T$280:T291)/U$300</f>
+        <v>0.93275996872556688</v>
+      </c>
+      <c r="V291">
+        <f>SUM(T$281:T291)/V$300</f>
+        <v>0.93217665615141954</v>
+      </c>
+      <c r="W291" s="1">
+        <f t="shared" si="58"/>
+        <v>30</v>
+      </c>
+      <c r="Y291">
+        <v>26.234000000000002</v>
+      </c>
+      <c r="Z291">
+        <v>5</v>
+      </c>
+      <c r="AA291">
+        <f>SUM(Z$280:Z291)/AA$300</f>
+        <v>0.18839200761179828</v>
+      </c>
+      <c r="AB291">
+        <f>SUM(Z$281:Z291)/AB$300</f>
+        <v>0.17980769230769231</v>
+      </c>
+      <c r="AC291" s="1">
+        <f t="shared" si="59"/>
+        <v>26</v>
+      </c>
+      <c r="AV291">
+        <v>30.547999999999998</v>
+      </c>
+      <c r="AW291">
+        <v>16</v>
+      </c>
+      <c r="AX291">
+        <f>SUM(AW$280:AW291)/AX$300</f>
+        <v>0.24807121661721068</v>
+      </c>
+      <c r="AY291">
+        <f>SUM(AW$281:AW291)/AY$300</f>
+        <v>0.24267782426778242</v>
+      </c>
+      <c r="AZ291" s="1">
+        <f t="shared" si="60"/>
+        <v>31</v>
+      </c>
+      <c r="BB291">
+        <v>24.887</v>
+      </c>
+      <c r="BC291">
+        <v>45</v>
+      </c>
+      <c r="BD291">
+        <f>SUM(BC$280:BC291)/BD$300</f>
+        <v>0.19357142857142856</v>
+      </c>
+      <c r="BE291">
+        <f>SUM(BC$281:BC291)/BE$300</f>
+        <v>0.18718502519798416</v>
+      </c>
+      <c r="BF291" s="1">
+        <f t="shared" si="61"/>
+        <v>25</v>
+      </c>
+      <c r="BH291">
+        <v>22.259</v>
+      </c>
+      <c r="BI291">
+        <v>36</v>
+      </c>
+      <c r="BJ291">
+        <f>SUM(BI$280:BI291)/BJ$300</f>
+        <v>0.17164697706740792</v>
+      </c>
+      <c r="BK291">
+        <f>SUM(BI$281:BI291)/BK$300</f>
+        <v>0.16526610644257703</v>
+      </c>
+      <c r="BL291" s="1">
+        <f t="shared" si="62"/>
+        <v>22</v>
+      </c>
+      <c r="BN291">
+        <v>29.748000000000001</v>
+      </c>
+      <c r="BO291">
+        <v>895</v>
+      </c>
+      <c r="BP291">
+        <f>SUM(BO$280:BO291)/BP$300</f>
+        <v>0.93275996872556688</v>
+      </c>
+      <c r="BQ291">
+        <f>SUM(BO$281:BO291)/BQ$300</f>
+        <v>0.93217665615141954</v>
+      </c>
+      <c r="BR291" s="1">
+        <f t="shared" si="63"/>
+        <v>30</v>
+      </c>
+      <c r="BT291">
+        <v>26.234000000000002</v>
+      </c>
+      <c r="BU291">
+        <v>5</v>
+      </c>
+      <c r="BV291">
+        <f>SUM(BU$280:BU291)/BV$300</f>
+        <v>0.18839200761179828</v>
+      </c>
+      <c r="BW291">
+        <f>SUM(BU$281:BU291)/BW$300</f>
+        <v>0.17980769230769231</v>
+      </c>
+      <c r="BX291" s="1">
+        <f t="shared" si="64"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>17</v>
+      </c>
+      <c r="C292">
+        <f>SUM(B$280:B292)/C$300</f>
+        <v>0.25816023738872401</v>
+      </c>
+      <c r="D292">
+        <f>SUM(B$281:B292)/D$300</f>
+        <v>0.25283921099820683</v>
+      </c>
+      <c r="E292" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>26.844000000000001</v>
+      </c>
+      <c r="H292">
+        <v>10</v>
+      </c>
+      <c r="I292">
+        <f>SUM(H$280:H292)/I$300</f>
+        <v>0.20071428571428571</v>
+      </c>
+      <c r="J292">
+        <f>SUM(H$281:H292)/J$300</f>
+        <v>0.19438444924406048</v>
+      </c>
+      <c r="K292" s="1">
+        <f t="shared" si="56"/>
+        <v>27</v>
+      </c>
+      <c r="M292">
+        <v>24.027999999999999</v>
+      </c>
+      <c r="N292">
+        <v>10</v>
+      </c>
+      <c r="O292">
+        <f>SUM(N$280:N292)/O$300</f>
+        <v>0.17859624739402363</v>
+      </c>
+      <c r="P292">
+        <f>SUM(N$281:N292)/P$300</f>
+        <v>0.17226890756302521</v>
+      </c>
+      <c r="Q292" s="1">
+        <f t="shared" si="57"/>
+        <v>24</v>
+      </c>
+      <c r="S292">
+        <v>32.216000000000001</v>
+      </c>
+      <c r="T292">
+        <v>84</v>
+      </c>
+      <c r="U292">
+        <f>SUM(T$280:T292)/U$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="V292">
+        <f>SUM(T$281:T292)/V$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="W292" s="1">
+        <f t="shared" si="58"/>
+        <v>32</v>
+      </c>
+      <c r="Y292">
+        <v>28.388000000000002</v>
+      </c>
+      <c r="Z292">
+        <v>537</v>
+      </c>
+      <c r="AA292">
+        <f>SUM(Z$280:Z292)/AA$300</f>
+        <v>0.69933396764985722</v>
+      </c>
+      <c r="AB292">
+        <f>SUM(Z$281:Z292)/AB$300</f>
+        <v>0.69615384615384612</v>
+      </c>
+      <c r="AC292" s="1">
+        <f t="shared" si="59"/>
+        <v>28</v>
+      </c>
+      <c r="AV292">
+        <v>32.975999999999999</v>
+      </c>
+      <c r="AW292">
+        <v>17</v>
+      </c>
+      <c r="AX292">
+        <f>SUM(AW$280:AW292)/AX$300</f>
+        <v>0.25816023738872401</v>
+      </c>
+      <c r="AY292">
+        <f>SUM(AW$281:AW292)/AY$300</f>
+        <v>0.25283921099820683</v>
+      </c>
+      <c r="AZ292" s="1">
+        <f t="shared" si="60"/>
+        <v>33</v>
+      </c>
+      <c r="BB292">
+        <v>26.844000000000001</v>
+      </c>
+      <c r="BC292">
+        <v>10</v>
+      </c>
+      <c r="BD292">
+        <f>SUM(BC$280:BC292)/BD$300</f>
+        <v>0.20071428571428571</v>
+      </c>
+      <c r="BE292">
+        <f>SUM(BC$281:BC292)/BE$300</f>
+        <v>0.19438444924406048</v>
+      </c>
+      <c r="BF292" s="1">
+        <f t="shared" si="61"/>
+        <v>27</v>
+      </c>
+      <c r="BH292">
+        <v>24.027999999999999</v>
+      </c>
+      <c r="BI292">
+        <v>10</v>
+      </c>
+      <c r="BJ292">
+        <f>SUM(BI$280:BI292)/BJ$300</f>
+        <v>0.17859624739402363</v>
+      </c>
+      <c r="BK292">
+        <f>SUM(BI$281:BI292)/BK$300</f>
+        <v>0.17226890756302521</v>
+      </c>
+      <c r="BL292" s="1">
+        <f t="shared" si="62"/>
+        <v>24</v>
+      </c>
+      <c r="BN292">
+        <v>32.216000000000001</v>
+      </c>
+      <c r="BO292">
+        <v>84</v>
+      </c>
+      <c r="BP292">
+        <f>SUM(BO$280:BO292)/BP$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="BQ292">
+        <f>SUM(BO$281:BO292)/BQ$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="BR292" s="1">
+        <f t="shared" si="63"/>
+        <v>32</v>
+      </c>
+      <c r="BT292">
+        <v>28.388000000000002</v>
+      </c>
+      <c r="BU292">
+        <v>537</v>
+      </c>
+      <c r="BV292">
+        <f>SUM(BU$280:BU292)/BV$300</f>
+        <v>0.69933396764985722</v>
+      </c>
+      <c r="BW292">
+        <f>SUM(BU$281:BU292)/BW$300</f>
+        <v>0.69615384615384612</v>
+      </c>
+      <c r="BX292" s="1">
+        <f t="shared" si="64"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="293" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>309</v>
+      </c>
+      <c r="C293">
+        <f>SUM(B$280:B293)/C$300</f>
+        <v>0.44154302670623147</v>
+      </c>
+      <c r="D293">
+        <f>SUM(B$281:B293)/D$300</f>
+        <v>0.4375373580394501</v>
+      </c>
+      <c r="E293" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>28.800999999999998</v>
+      </c>
+      <c r="H293">
+        <v>3</v>
+      </c>
+      <c r="I293">
+        <f>SUM(H$280:H293)/I$300</f>
+        <v>0.20285714285714285</v>
+      </c>
+      <c r="J293">
+        <f>SUM(H$281:H293)/J$300</f>
+        <v>0.19654427645788336</v>
+      </c>
+      <c r="K293" s="1">
+        <f t="shared" si="56"/>
+        <v>29</v>
+      </c>
+      <c r="M293">
+        <v>25.797000000000001</v>
+      </c>
+      <c r="N293">
+        <v>7</v>
+      </c>
+      <c r="O293">
+        <f>SUM(N$280:N293)/O$300</f>
+        <v>0.18346073662265461</v>
+      </c>
+      <c r="P293">
+        <f>SUM(N$281:N293)/P$300</f>
+        <v>0.17717086834733894</v>
+      </c>
+      <c r="Q293" s="1">
+        <f t="shared" si="57"/>
+        <v>26</v>
+      </c>
+      <c r="S293">
+        <v>34.683999999999997</v>
+      </c>
+      <c r="T293">
+        <v>0</v>
+      </c>
+      <c r="U293">
+        <f>SUM(T$280:T293)/U$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="V293">
+        <f>SUM(T$281:T293)/V$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="W293" s="1">
+        <f t="shared" si="58"/>
+        <v>35</v>
+      </c>
+      <c r="Y293">
+        <v>30.542000000000002</v>
+      </c>
+      <c r="Z293">
+        <v>314</v>
+      </c>
+      <c r="AA293">
+        <f>SUM(Z$280:Z293)/AA$300</f>
+        <v>0.99809705042816366</v>
+      </c>
+      <c r="AB293">
+        <f>SUM(Z$281:Z293)/AB$300</f>
+        <v>0.99807692307692308</v>
+      </c>
+      <c r="AC293" s="1">
+        <f t="shared" si="59"/>
+        <v>31</v>
+      </c>
+      <c r="AV293">
+        <v>35.404000000000003</v>
+      </c>
+      <c r="AW293">
+        <v>309</v>
+      </c>
+      <c r="AX293">
+        <f>SUM(AW$280:AW293)/AX$300</f>
+        <v>0.44154302670623147</v>
+      </c>
+      <c r="AY293">
+        <f>SUM(AW$281:AW293)/AY$300</f>
+        <v>0.4375373580394501</v>
+      </c>
+      <c r="AZ293" s="1">
+        <f t="shared" si="60"/>
+        <v>35</v>
+      </c>
+      <c r="BB293">
+        <v>28.800999999999998</v>
+      </c>
+      <c r="BC293">
+        <v>3</v>
+      </c>
+      <c r="BD293">
+        <f>SUM(BC$280:BC293)/BD$300</f>
+        <v>0.20285714285714285</v>
+      </c>
+      <c r="BE293">
+        <f>SUM(BC$281:BC293)/BE$300</f>
+        <v>0.19654427645788336</v>
+      </c>
+      <c r="BF293" s="1">
+        <f t="shared" si="61"/>
+        <v>29</v>
+      </c>
+      <c r="BH293">
+        <v>25.797000000000001</v>
+      </c>
+      <c r="BI293">
+        <v>7</v>
+      </c>
+      <c r="BJ293">
+        <f>SUM(BI$280:BI293)/BJ$300</f>
+        <v>0.18346073662265461</v>
+      </c>
+      <c r="BK293">
+        <f>SUM(BI$281:BI293)/BK$300</f>
+        <v>0.17717086834733894</v>
+      </c>
+      <c r="BL293" s="1">
+        <f t="shared" si="62"/>
+        <v>26</v>
+      </c>
+      <c r="BN293">
+        <v>34.683999999999997</v>
+      </c>
+      <c r="BO293">
+        <v>0</v>
+      </c>
+      <c r="BP293">
+        <f>SUM(BO$280:BO293)/BP$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="BQ293">
+        <f>SUM(BO$281:BO293)/BQ$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="BR293" s="1">
+        <f t="shared" si="63"/>
+        <v>35</v>
+      </c>
+      <c r="BT293">
+        <v>30.542000000000002</v>
+      </c>
+      <c r="BU293">
+        <v>314</v>
+      </c>
+      <c r="BV293">
+        <f>SUM(BU$280:BU293)/BV$300</f>
+        <v>0.99809705042816366</v>
+      </c>
+      <c r="BW293">
+        <f>SUM(BU$281:BU293)/BW$300</f>
+        <v>0.99807692307692308</v>
+      </c>
+      <c r="BX293" s="1">
+        <f t="shared" si="64"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="294" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>898</v>
+      </c>
+      <c r="C294">
+        <f>SUM(B$280:B294)/C$300</f>
+        <v>0.97448071216617216</v>
+      </c>
+      <c r="D294">
+        <f>SUM(B$281:B294)/D$300</f>
+        <v>0.97429766885833835</v>
+      </c>
+      <c r="E294" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>30.757999999999999</v>
+      </c>
+      <c r="H294">
+        <v>4</v>
+      </c>
+      <c r="I294">
+        <f>SUM(H$280:H294)/I$300</f>
+        <v>0.20571428571428571</v>
+      </c>
+      <c r="J294">
+        <f>SUM(H$281:H294)/J$300</f>
+        <v>0.19942404607631389</v>
+      </c>
+      <c r="K294" s="1">
+        <f t="shared" si="56"/>
+        <v>31</v>
+      </c>
+      <c r="M294">
+        <v>27.565999999999999</v>
+      </c>
+      <c r="N294">
+        <v>4</v>
+      </c>
+      <c r="O294">
+        <f>SUM(N$280:N294)/O$300</f>
+        <v>0.1862404447533009</v>
+      </c>
+      <c r="P294">
+        <f>SUM(N$281:N294)/P$300</f>
+        <v>0.17997198879551821</v>
+      </c>
+      <c r="Q294" s="1">
+        <f t="shared" si="57"/>
+        <v>28</v>
+      </c>
+      <c r="S294">
+        <v>37.152000000000001</v>
+      </c>
+      <c r="T294">
+        <v>0</v>
+      </c>
+      <c r="U294">
+        <f>SUM(T$280:T294)/U$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="V294">
+        <f>SUM(T$281:T294)/V$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="W294" s="1">
+        <f t="shared" si="58"/>
+        <v>37</v>
+      </c>
+      <c r="Y294">
+        <v>32.695999999999998</v>
+      </c>
+      <c r="Z294">
+        <v>1</v>
+      </c>
+      <c r="AA294">
+        <f>SUM(Z$280:Z294)/AA$300</f>
+        <v>0.99904852521408183</v>
+      </c>
+      <c r="AB294">
+        <f>SUM(Z$281:Z294)/AB$300</f>
+        <v>0.99903846153846154</v>
+      </c>
+      <c r="AC294" s="1">
+        <f t="shared" si="59"/>
+        <v>33</v>
+      </c>
+      <c r="AV294">
+        <v>37.832000000000001</v>
+      </c>
+      <c r="AW294">
+        <v>898</v>
+      </c>
+      <c r="AX294">
+        <f>SUM(AW$280:AW294)/AX$300</f>
+        <v>0.97448071216617216</v>
+      </c>
+      <c r="AY294">
+        <f>SUM(AW$281:AW294)/AY$300</f>
+        <v>0.97429766885833835</v>
+      </c>
+      <c r="AZ294" s="1">
+        <f t="shared" si="60"/>
+        <v>38</v>
+      </c>
+      <c r="BB294">
+        <v>30.757999999999999</v>
+      </c>
+      <c r="BC294">
+        <v>4</v>
+      </c>
+      <c r="BD294">
+        <f>SUM(BC$280:BC294)/BD$300</f>
+        <v>0.20571428571428571</v>
+      </c>
+      <c r="BE294">
+        <f>SUM(BC$281:BC294)/BE$300</f>
+        <v>0.19942404607631389</v>
+      </c>
+      <c r="BF294" s="1">
+        <f t="shared" si="61"/>
+        <v>31</v>
+      </c>
+      <c r="BH294">
+        <v>27.565999999999999</v>
+      </c>
+      <c r="BI294">
+        <v>4</v>
+      </c>
+      <c r="BJ294">
+        <f>SUM(BI$280:BI294)/BJ$300</f>
+        <v>0.1862404447533009</v>
+      </c>
+      <c r="BK294">
+        <f>SUM(BI$281:BI294)/BK$300</f>
+        <v>0.17997198879551821</v>
+      </c>
+      <c r="BL294" s="1">
+        <f t="shared" si="62"/>
+        <v>28</v>
+      </c>
+      <c r="BN294">
+        <v>37.152000000000001</v>
+      </c>
+      <c r="BO294">
+        <v>0</v>
+      </c>
+      <c r="BP294">
+        <f>SUM(BO$280:BO294)/BP$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="BQ294">
+        <f>SUM(BO$281:BO294)/BQ$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="BR294" s="1">
+        <f t="shared" si="63"/>
+        <v>37</v>
+      </c>
+      <c r="BT294">
+        <v>32.695999999999998</v>
+      </c>
+      <c r="BU294">
+        <v>1</v>
+      </c>
+      <c r="BV294">
+        <f>SUM(BU$280:BU294)/BV$300</f>
+        <v>0.99904852521408183</v>
+      </c>
+      <c r="BW294">
+        <f>SUM(BU$281:BU294)/BW$300</f>
+        <v>0.99903846153846154</v>
+      </c>
+      <c r="BX294" s="1">
+        <f t="shared" si="64"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="295" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>41</v>
+      </c>
+      <c r="C295">
+        <f>SUM(B$280:B295)/C$300</f>
+        <v>0.99881305637982198</v>
+      </c>
+      <c r="D295">
+        <f>SUM(B$281:B295)/D$300</f>
+        <v>0.99880454273759711</v>
+      </c>
+      <c r="E295" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>32.715000000000003</v>
+      </c>
+      <c r="H295">
+        <v>410</v>
+      </c>
+      <c r="I295">
+        <f>SUM(H$280:H295)/I$300</f>
+        <v>0.49857142857142855</v>
+      </c>
+      <c r="J295">
+        <f>SUM(H$281:H295)/J$300</f>
+        <v>0.49460043196544279</v>
+      </c>
+      <c r="K295" s="1">
+        <f t="shared" si="56"/>
+        <v>33</v>
+      </c>
+      <c r="M295">
+        <v>29.335000000000001</v>
+      </c>
+      <c r="N295">
+        <v>95</v>
+      </c>
+      <c r="O295">
+        <f>SUM(N$280:N295)/O$300</f>
+        <v>0.25225851285615009</v>
+      </c>
+      <c r="P295">
+        <f>SUM(N$281:N295)/P$300</f>
+        <v>0.24649859943977592</v>
+      </c>
+      <c r="Q295" s="1">
+        <f t="shared" si="57"/>
+        <v>29</v>
+      </c>
+      <c r="S295">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="T295">
+        <v>0</v>
+      </c>
+      <c r="U295">
+        <f>SUM(T$280:T295)/U$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="V295">
+        <f>SUM(T$281:T295)/V$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="W295" s="1">
+        <f t="shared" si="58"/>
+        <v>40</v>
+      </c>
+      <c r="Y295">
+        <v>34.85</v>
+      </c>
+      <c r="Z295">
+        <v>0</v>
+      </c>
+      <c r="AA295">
+        <f>SUM(Z$280:Z295)/AA$300</f>
+        <v>0.99904852521408183</v>
+      </c>
+      <c r="AB295">
+        <f>SUM(Z$281:Z295)/AB$300</f>
+        <v>0.99903846153846154</v>
+      </c>
+      <c r="AC295" s="1">
+        <f t="shared" si="59"/>
+        <v>35</v>
+      </c>
+      <c r="AV295">
+        <v>40.26</v>
+      </c>
+      <c r="AW295">
+        <v>41</v>
+      </c>
+      <c r="AX295">
+        <f>SUM(AW$280:AW295)/AX$300</f>
+        <v>0.99881305637982198</v>
+      </c>
+      <c r="AY295">
+        <f>SUM(AW$281:AW295)/AY$300</f>
+        <v>0.99880454273759711</v>
+      </c>
+      <c r="AZ295" s="1">
+        <f t="shared" si="60"/>
+        <v>40</v>
+      </c>
+      <c r="BB295">
+        <v>32.715000000000003</v>
+      </c>
+      <c r="BC295">
+        <v>410</v>
+      </c>
+      <c r="BD295">
+        <f>SUM(BC$280:BC295)/BD$300</f>
+        <v>0.49857142857142855</v>
+      </c>
+      <c r="BE295">
+        <f>SUM(BC$281:BC295)/BE$300</f>
+        <v>0.49460043196544279</v>
+      </c>
+      <c r="BF295" s="1">
+        <f t="shared" si="61"/>
+        <v>33</v>
+      </c>
+      <c r="BH295">
+        <v>29.335000000000001</v>
+      </c>
+      <c r="BI295">
+        <v>95</v>
+      </c>
+      <c r="BJ295">
+        <f>SUM(BI$280:BI295)/BJ$300</f>
+        <v>0.25225851285615009</v>
+      </c>
+      <c r="BK295">
+        <f>SUM(BI$281:BI295)/BK$300</f>
+        <v>0.24649859943977592</v>
+      </c>
+      <c r="BL295" s="1">
+        <f t="shared" si="62"/>
+        <v>29</v>
+      </c>
+      <c r="BN295">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="BO295">
+        <v>0</v>
+      </c>
+      <c r="BP295">
+        <f>SUM(BO$280:BO295)/BP$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="BQ295">
+        <f>SUM(BO$281:BO295)/BQ$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="BR295" s="1">
+        <f t="shared" si="63"/>
+        <v>40</v>
+      </c>
+      <c r="BT295">
+        <v>34.85</v>
+      </c>
+      <c r="BU295">
+        <v>0</v>
+      </c>
+      <c r="BV295">
+        <f>SUM(BU$280:BU295)/BV$300</f>
+        <v>0.99904852521408183</v>
+      </c>
+      <c r="BW295">
+        <f>SUM(BU$281:BU295)/BW$300</f>
+        <v>0.99903846153846154</v>
+      </c>
+      <c r="BX295" s="1">
+        <f t="shared" si="64"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="296" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <f>SUM(B$280:B296)/C$300</f>
+        <v>0.99940652818991094</v>
+      </c>
+      <c r="D296">
+        <f>SUM(B$281:B296)/D$300</f>
+        <v>0.99940227136879856</v>
+      </c>
+      <c r="E296" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>34.671999999999997</v>
+      </c>
+      <c r="H296">
+        <v>677</v>
+      </c>
+      <c r="I296">
+        <f>SUM(H$280:H296)/I$300</f>
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="J296">
+        <f>SUM(H$281:H296)/J$300</f>
+        <v>0.98200143988480926</v>
+      </c>
+      <c r="K296" s="1">
+        <f t="shared" si="56"/>
+        <v>35</v>
+      </c>
+      <c r="M296">
+        <v>31.103999999999999</v>
+      </c>
+      <c r="N296">
+        <v>799</v>
+      </c>
+      <c r="O296">
+        <f>SUM(N$280:N296)/O$300</f>
+        <v>0.80750521195274494</v>
+      </c>
+      <c r="P296">
+        <f>SUM(N$281:N296)/P$300</f>
+        <v>0.80602240896358546</v>
+      </c>
+      <c r="Q296" s="1">
+        <f t="shared" si="57"/>
+        <v>31</v>
+      </c>
+      <c r="S296">
+        <v>42.088000000000001</v>
+      </c>
+      <c r="T296">
+        <v>0</v>
+      </c>
+      <c r="U296">
+        <f>SUM(T$280:T296)/U$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="V296">
+        <f>SUM(T$281:T296)/V$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="W296" s="1">
+        <f t="shared" si="58"/>
+        <v>42</v>
+      </c>
+      <c r="Y296">
+        <v>37.003999999999998</v>
+      </c>
+      <c r="Z296">
+        <v>0</v>
+      </c>
+      <c r="AA296">
+        <f>SUM(Z$280:Z296)/AA$300</f>
+        <v>0.99904852521408183</v>
+      </c>
+      <c r="AB296">
+        <f>SUM(Z$281:Z296)/AB$300</f>
+        <v>0.99903846153846154</v>
+      </c>
+      <c r="AC296" s="1">
+        <f t="shared" si="59"/>
+        <v>37</v>
+      </c>
+      <c r="AV296">
+        <v>42.688000000000002</v>
+      </c>
+      <c r="AW296">
+        <v>1</v>
+      </c>
+      <c r="AX296">
+        <f>SUM(AW$280:AW296)/AX$300</f>
+        <v>0.99940652818991094</v>
+      </c>
+      <c r="AY296">
+        <f>SUM(AW$281:AW296)/AY$300</f>
+        <v>0.99940227136879856</v>
+      </c>
+      <c r="AZ296" s="1">
+        <f t="shared" si="60"/>
+        <v>43</v>
+      </c>
+      <c r="BB296">
+        <v>34.671999999999997</v>
+      </c>
+      <c r="BC296">
+        <v>677</v>
+      </c>
+      <c r="BD296">
+        <f>SUM(BC$280:BC296)/BD$300</f>
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="BE296">
+        <f>SUM(BC$281:BC296)/BE$300</f>
+        <v>0.98200143988480926</v>
+      </c>
+      <c r="BF296" s="1">
+        <f t="shared" si="61"/>
+        <v>35</v>
+      </c>
+      <c r="BH296">
+        <v>31.103999999999999</v>
+      </c>
+      <c r="BI296">
+        <v>799</v>
+      </c>
+      <c r="BJ296">
+        <f>SUM(BI$280:BI296)/BJ$300</f>
+        <v>0.80750521195274494</v>
+      </c>
+      <c r="BK296">
+        <f>SUM(BI$281:BI296)/BK$300</f>
+        <v>0.80602240896358546</v>
+      </c>
+      <c r="BL296" s="1">
+        <f t="shared" si="62"/>
+        <v>31</v>
+      </c>
+      <c r="BN296">
+        <v>42.088000000000001</v>
+      </c>
+      <c r="BO296">
+        <v>0</v>
+      </c>
+      <c r="BP296">
+        <f>SUM(BO$280:BO296)/BP$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="BQ296">
+        <f>SUM(BO$281:BO296)/BQ$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="BR296" s="1">
+        <f t="shared" si="63"/>
+        <v>42</v>
+      </c>
+      <c r="BT296">
+        <v>37.003999999999998</v>
+      </c>
+      <c r="BU296">
+        <v>0</v>
+      </c>
+      <c r="BV296">
+        <f>SUM(BU$280:BU296)/BV$300</f>
+        <v>0.99904852521408183</v>
+      </c>
+      <c r="BW296">
+        <f>SUM(BU$281:BU296)/BW$300</f>
+        <v>0.99903846153846154</v>
+      </c>
+      <c r="BX296" s="1">
+        <f t="shared" si="64"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="297" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <f>SUM(B$280:B297)/C$300</f>
+        <v>0.99940652818991094</v>
+      </c>
+      <c r="D297">
+        <f>SUM(B$281:B297)/D$300</f>
+        <v>0.99940227136879856</v>
+      </c>
+      <c r="E297" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>36.628999999999998</v>
+      </c>
+      <c r="H297">
+        <v>24</v>
+      </c>
+      <c r="I297">
+        <f>SUM(H$280:H297)/I$300</f>
+        <v>0.99928571428571433</v>
+      </c>
+      <c r="J297">
+        <f>SUM(H$281:H297)/J$300</f>
+        <v>0.9992800575953924</v>
+      </c>
+      <c r="K297" s="1">
+        <f t="shared" si="56"/>
+        <v>37</v>
+      </c>
+      <c r="M297">
+        <v>32.872999999999998</v>
+      </c>
+      <c r="N297">
+        <v>276</v>
+      </c>
+      <c r="O297">
+        <f>SUM(N$280:N297)/O$300</f>
+        <v>0.99930507296733839</v>
+      </c>
+      <c r="P297">
+        <f>SUM(N$281:N297)/P$300</f>
+        <v>0.99929971988795518</v>
+      </c>
+      <c r="Q297" s="1">
+        <f t="shared" si="57"/>
+        <v>33</v>
+      </c>
+      <c r="S297">
+        <v>44.555999999999997</v>
+      </c>
+      <c r="T297">
+        <v>0</v>
+      </c>
+      <c r="U297">
+        <f>SUM(T$280:T297)/U$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="V297">
+        <f>SUM(T$281:T297)/V$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="W297" s="1">
+        <f t="shared" si="58"/>
+        <v>45</v>
+      </c>
+      <c r="Y297">
+        <v>39.158000000000001</v>
+      </c>
+      <c r="Z297">
+        <v>0</v>
+      </c>
+      <c r="AA297">
+        <f>SUM(Z$280:Z297)/AA$300</f>
+        <v>0.99904852521408183</v>
+      </c>
+      <c r="AB297">
+        <f>SUM(Z$281:Z297)/AB$300</f>
+        <v>0.99903846153846154</v>
+      </c>
+      <c r="AC297" s="1">
+        <f t="shared" si="59"/>
+        <v>39</v>
+      </c>
+      <c r="AV297">
+        <v>45.116</v>
+      </c>
+      <c r="AW297">
+        <v>0</v>
+      </c>
+      <c r="AX297">
+        <f>SUM(AW$280:AW297)/AX$300</f>
+        <v>0.99940652818991094</v>
+      </c>
+      <c r="AY297">
+        <f>SUM(AW$281:AW297)/AY$300</f>
+        <v>0.99940227136879856</v>
+      </c>
+      <c r="AZ297" s="1">
+        <f t="shared" si="60"/>
+        <v>45</v>
+      </c>
+      <c r="BB297">
+        <v>36.628999999999998</v>
+      </c>
+      <c r="BC297">
+        <v>24</v>
+      </c>
+      <c r="BD297">
+        <f>SUM(BC$280:BC297)/BD$300</f>
+        <v>0.99928571428571433</v>
+      </c>
+      <c r="BE297">
+        <f>SUM(BC$281:BC297)/BE$300</f>
+        <v>0.9992800575953924</v>
+      </c>
+      <c r="BF297" s="1">
+        <f t="shared" si="61"/>
+        <v>37</v>
+      </c>
+      <c r="BH297">
+        <v>32.872999999999998</v>
+      </c>
+      <c r="BI297">
+        <v>276</v>
+      </c>
+      <c r="BJ297">
+        <f>SUM(BI$280:BI297)/BJ$300</f>
+        <v>0.99930507296733839</v>
+      </c>
+      <c r="BK297">
+        <f>SUM(BI$281:BI297)/BK$300</f>
+        <v>0.99929971988795518</v>
+      </c>
+      <c r="BL297" s="1">
+        <f t="shared" si="62"/>
+        <v>33</v>
+      </c>
+      <c r="BN297">
+        <v>44.555999999999997</v>
+      </c>
+      <c r="BO297">
+        <v>0</v>
+      </c>
+      <c r="BP297">
+        <f>SUM(BO$280:BO297)/BP$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="BQ297">
+        <f>SUM(BO$281:BO297)/BQ$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="BR297" s="1">
+        <f t="shared" si="63"/>
+        <v>45</v>
+      </c>
+      <c r="BT297">
+        <v>39.158000000000001</v>
+      </c>
+      <c r="BU297">
+        <v>0</v>
+      </c>
+      <c r="BV297">
+        <f>SUM(BU$280:BU297)/BV$300</f>
+        <v>0.99904852521408183</v>
+      </c>
+      <c r="BW297">
+        <f>SUM(BU$281:BU297)/BW$300</f>
+        <v>0.99903846153846154</v>
+      </c>
+      <c r="BX297" s="1">
+        <f t="shared" si="64"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="298" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <f>SUM(B$280:B298)/C$300</f>
+        <v>0.99940652818991094</v>
+      </c>
+      <c r="D298">
+        <f>SUM(B$281:B298)/D$300</f>
+        <v>0.99940227136879856</v>
+      </c>
+      <c r="E298" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>38.585999999999999</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <f>SUM(H$280:H298)/I$300</f>
+        <v>0.99928571428571433</v>
+      </c>
+      <c r="J298">
+        <f>SUM(H$281:H298)/J$300</f>
+        <v>0.9992800575953924</v>
+      </c>
+      <c r="K298" s="1">
+        <f t="shared" si="56"/>
+        <v>39</v>
+      </c>
+      <c r="M298">
+        <v>34.642000000000003</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+      <c r="O298">
+        <f>SUM(N$280:N298)/O$300</f>
+        <v>0.99930507296733839</v>
+      </c>
+      <c r="P298">
+        <f>SUM(N$281:N298)/P$300</f>
+        <v>0.99929971988795518</v>
+      </c>
+      <c r="Q298" s="1">
+        <f t="shared" si="57"/>
+        <v>35</v>
+      </c>
+      <c r="S298">
+        <v>47.024000000000001</v>
+      </c>
+      <c r="T298">
+        <v>0</v>
+      </c>
+      <c r="U298">
+        <f>SUM(T$280:T298)/U$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="V298">
+        <f>SUM(T$281:T298)/V$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="W298" s="1">
+        <f t="shared" si="58"/>
+        <v>47</v>
+      </c>
+      <c r="Y298">
+        <v>41.311999999999998</v>
+      </c>
+      <c r="Z298">
+        <v>0</v>
+      </c>
+      <c r="AA298">
+        <f>SUM(Z$280:Z298)/AA$300</f>
+        <v>0.99904852521408183</v>
+      </c>
+      <c r="AB298">
+        <f>SUM(Z$281:Z298)/AB$300</f>
+        <v>0.99903846153846154</v>
+      </c>
+      <c r="AC298" s="1">
+        <f t="shared" si="59"/>
+        <v>41</v>
+      </c>
+      <c r="AV298">
+        <v>47.543999999999997</v>
+      </c>
+      <c r="AW298">
+        <v>0</v>
+      </c>
+      <c r="AX298">
+        <f>SUM(AW$280:AW298)/AX$300</f>
+        <v>0.99940652818991094</v>
+      </c>
+      <c r="AY298">
+        <f>SUM(AW$281:AW298)/AY$300</f>
+        <v>0.99940227136879856</v>
+      </c>
+      <c r="AZ298" s="1">
+        <f t="shared" si="60"/>
+        <v>48</v>
+      </c>
+      <c r="BB298">
+        <v>38.585999999999999</v>
+      </c>
+      <c r="BC298">
+        <v>0</v>
+      </c>
+      <c r="BD298">
+        <f>SUM(BC$280:BC298)/BD$300</f>
+        <v>0.99928571428571433</v>
+      </c>
+      <c r="BE298">
+        <f>SUM(BC$281:BC298)/BE$300</f>
+        <v>0.9992800575953924</v>
+      </c>
+      <c r="BF298" s="1">
+        <f t="shared" si="61"/>
+        <v>39</v>
+      </c>
+      <c r="BH298">
+        <v>34.642000000000003</v>
+      </c>
+      <c r="BI298">
+        <v>0</v>
+      </c>
+      <c r="BJ298">
+        <f>SUM(BI$280:BI298)/BJ$300</f>
+        <v>0.99930507296733839</v>
+      </c>
+      <c r="BK298">
+        <f>SUM(BI$281:BI298)/BK$300</f>
+        <v>0.99929971988795518</v>
+      </c>
+      <c r="BL298" s="1">
+        <f t="shared" si="62"/>
+        <v>35</v>
+      </c>
+      <c r="BN298">
+        <v>47.024000000000001</v>
+      </c>
+      <c r="BO298">
+        <v>0</v>
+      </c>
+      <c r="BP298">
+        <f>SUM(BO$280:BO298)/BP$300</f>
+        <v>0.99843627834245507</v>
+      </c>
+      <c r="BQ298">
+        <f>SUM(BO$281:BO298)/BQ$300</f>
+        <v>0.99842271293375395</v>
+      </c>
+      <c r="BR298" s="1">
+        <f t="shared" si="63"/>
+        <v>47</v>
+      </c>
+      <c r="BT298">
+        <v>41.311999999999998</v>
+      </c>
+      <c r="BU298">
+        <v>0</v>
+      </c>
+      <c r="BV298">
+        <f>SUM(BU$280:BU298)/BV$300</f>
+        <v>0.99904852521408183</v>
+      </c>
+      <c r="BW298">
+        <f>SUM(BU$281:BU298)/BW$300</f>
+        <v>0.99903846153846154</v>
+      </c>
+      <c r="BX298" s="1">
+        <f t="shared" si="64"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="299" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <f>SUM(B$280:B299)/C$300</f>
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <f>SUM(B$281:B299)/D$300</f>
+        <v>1</v>
+      </c>
+      <c r="E299" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>40.542999999999999</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+      <c r="I299">
+        <f>SUM(H$280:H299)/I$300</f>
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <f>SUM(H$281:H299)/J$300</f>
+        <v>1</v>
+      </c>
+      <c r="K299" s="1">
+        <f t="shared" si="56"/>
+        <v>41</v>
+      </c>
+      <c r="M299">
+        <v>36.411000000000001</v>
+      </c>
+      <c r="N299">
+        <v>1</v>
+      </c>
+      <c r="O299">
+        <f>SUM(N$280:N299)/O$300</f>
+        <v>1</v>
+      </c>
+      <c r="P299">
+        <f>SUM(N$281:N299)/P$300</f>
+        <v>1</v>
+      </c>
+      <c r="Q299" s="1">
+        <f t="shared" si="57"/>
+        <v>36</v>
+      </c>
+      <c r="S299">
+        <v>49.491999999999997</v>
+      </c>
+      <c r="T299">
+        <v>2</v>
+      </c>
+      <c r="U299">
+        <f>SUM(T$280:T299)/U$300</f>
+        <v>1</v>
+      </c>
+      <c r="V299">
+        <f>SUM(T$281:T299)/V$300</f>
+        <v>1</v>
+      </c>
+      <c r="W299" s="1">
+        <f t="shared" si="58"/>
+        <v>49</v>
+      </c>
+      <c r="Y299">
+        <v>43.466000000000001</v>
+      </c>
+      <c r="Z299">
+        <v>1</v>
+      </c>
+      <c r="AA299">
+        <f>SUM(Z$280:Z299)/AA$300</f>
+        <v>1</v>
+      </c>
+      <c r="AB299">
+        <f>SUM(Z$281:Z299)/AB$300</f>
+        <v>1</v>
+      </c>
+      <c r="AC299" s="1">
+        <f t="shared" si="59"/>
+        <v>43</v>
+      </c>
+      <c r="AV299">
+        <v>49.972000000000001</v>
+      </c>
+      <c r="AW299">
+        <v>1</v>
+      </c>
+      <c r="AX299">
+        <f>SUM(AW$280:AW299)/AX$300</f>
+        <v>1</v>
+      </c>
+      <c r="AY299">
+        <f>SUM(AW$281:AW299)/AY$300</f>
+        <v>1</v>
+      </c>
+      <c r="AZ299" s="1">
+        <f t="shared" si="60"/>
+        <v>50</v>
+      </c>
+      <c r="BB299">
+        <v>40.542999999999999</v>
+      </c>
+      <c r="BC299">
+        <v>1</v>
+      </c>
+      <c r="BD299">
+        <f>SUM(BC$280:BC299)/BD$300</f>
+        <v>1</v>
+      </c>
+      <c r="BE299">
+        <f>SUM(BC$281:BC299)/BE$300</f>
+        <v>1</v>
+      </c>
+      <c r="BF299" s="1">
+        <f t="shared" si="61"/>
+        <v>41</v>
+      </c>
+      <c r="BH299">
+        <v>36.411000000000001</v>
+      </c>
+      <c r="BI299">
+        <v>1</v>
+      </c>
+      <c r="BJ299">
+        <f>SUM(BI$280:BI299)/BJ$300</f>
+        <v>1</v>
+      </c>
+      <c r="BK299">
+        <f>SUM(BI$281:BI299)/BK$300</f>
+        <v>1</v>
+      </c>
+      <c r="BL299" s="1">
+        <f t="shared" si="62"/>
+        <v>36</v>
+      </c>
+      <c r="BN299">
+        <v>49.491999999999997</v>
+      </c>
+      <c r="BO299">
+        <v>2</v>
+      </c>
+      <c r="BP299">
+        <f>SUM(BO$280:BO299)/BP$300</f>
+        <v>1</v>
+      </c>
+      <c r="BQ299">
+        <f>SUM(BO$281:BO299)/BQ$300</f>
+        <v>1</v>
+      </c>
+      <c r="BR299" s="1">
+        <f t="shared" si="63"/>
+        <v>49</v>
+      </c>
+      <c r="BT299">
+        <v>43.466000000000001</v>
+      </c>
+      <c r="BU299">
+        <v>1</v>
+      </c>
+      <c r="BV299">
+        <f>SUM(BU$280:BU299)/BV$300</f>
+        <v>1</v>
+      </c>
+      <c r="BW299">
+        <f>SUM(BU$281:BU299)/BW$300</f>
+        <v>1</v>
+      </c>
+      <c r="BX299" s="1">
+        <f t="shared" si="64"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="300" spans="2:76" x14ac:dyDescent="0.3">
+      <c r="C300">
+        <f>SUM(B280:B299)</f>
+        <v>1685</v>
+      </c>
+      <c r="D300">
+        <f>SUM(B281:B299)</f>
+        <v>1673</v>
+      </c>
+      <c r="I300">
+        <f>SUM(H280:H299)</f>
+        <v>1400</v>
+      </c>
+      <c r="J300">
+        <f>SUM(H281:H299)</f>
+        <v>1389</v>
+      </c>
+      <c r="O300">
+        <f>SUM(N280:N299)</f>
+        <v>1439</v>
+      </c>
+      <c r="P300">
+        <f>SUM(N281:N299)</f>
+        <v>1428</v>
+      </c>
+      <c r="U300">
+        <f>SUM(T280:T299)</f>
+        <v>1279</v>
+      </c>
+      <c r="V300">
+        <f>SUM(T281:T299)</f>
+        <v>1268</v>
+      </c>
+      <c r="AA300">
+        <f>SUM(Z280:Z299)</f>
+        <v>1051</v>
+      </c>
+      <c r="AB300">
+        <f>SUM(Z281:Z299)</f>
+        <v>1040</v>
+      </c>
+      <c r="AX300">
+        <f>SUM(AW280:AW299)</f>
+        <v>1685</v>
+      </c>
+      <c r="AY300">
+        <f>SUM(AW281:AW299)</f>
+        <v>1673</v>
+      </c>
+      <c r="BD300">
+        <f>SUM(BC280:BC299)</f>
+        <v>1400</v>
+      </c>
+      <c r="BE300">
+        <f>SUM(BC281:BC299)</f>
+        <v>1389</v>
+      </c>
+      <c r="BJ300">
+        <f>SUM(BI280:BI299)</f>
+        <v>1439</v>
+      </c>
+      <c r="BK300">
+        <f>SUM(BI281:BI299)</f>
+        <v>1428</v>
+      </c>
+      <c r="BP300">
+        <f>SUM(BO280:BO299)</f>
+        <v>1279</v>
+      </c>
+      <c r="BQ300">
+        <f>SUM(BO281:BO299)</f>
+        <v>1268</v>
+      </c>
+      <c r="BV300">
+        <f>SUM(BU280:BU299)</f>
+        <v>1051</v>
+      </c>
+      <c r="BW300">
+        <f>SUM(BU281:BU299)</f>
         <v>1040</v>
       </c>
     </row>
